--- a/Dataset/Folds/Fold_2/Excel/15.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="435">
   <si>
     <t>Doi</t>
   </si>
@@ -1390,6 +1390,157 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,                          Dominik%Jarczak%NULL%1,                          Liina%Thasler%NULL%1,                          Martin%Bachmann%NULL%1,                          Frank%Schulte%NULL%1,                          Berthold%Bein%NULL%1,                          Christian Friedrich%Weber%NULL%1,                          Ulrich%Schäfer%NULL%1,                          Carsten%Veit%NULL%1,                          Hans-Peter%Hauber%NULL%1,                          Sebastian%Kopp%NULL%1,                          Karsten%Sydow%NULL%1,                          Andreas%de Weerth%NULL%0,                          Marc%Bota%NULL%1,                          Rüdiger%Schreiber%NULL%1,                          Oliver%Detsch%NULL%1,                          Jan-Peer%Rogmann%NULL%1,                          Daniel%Frings%NULL%0,                          Barbara%Sensen%NULL%1,                          Christoph%Burdelski%NULL%0,                          Olaf%Boenisch%NULL%1,                          Axel%Nierhaus%NULL%0,                          Geraldine%de Heer%NULL%0,                          Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                           Paolo%Comassi%NULL%1,                           Luca%Adriani%NULL%1,                           Giulio%Bergamaschini%NULL%1,                           Elena%Bertin%NULL%1,                           Raffaella%Borromeo%NULL%1,                           Serena%Corti%NULL%1,                           Federica%De Petri%NULL%1,                           Francesco%Dolci%NULL%1,                           Attilio%Galmozzi%NULL%1,                           Alberto%Gigliotti%NULL%1,                           Livio%Gualdoni%NULL%1,                           Claudia%Guerra%NULL%1,                           Anna%Khosthiova%NULL%1,                           Giovanni%Leati%NULL%1,                           Giuseppe%Lupi%NULL%1,                           Paolo%Moscato%NULL%1,                           Vittorio%Perotti%NULL%1,                           Miriam%Piantelli%NULL%1,                           Alain%Ruini%NULL%1,                           Silvia%Sportelli%NULL%1,                           Micaela%Susca%NULL%1,                           Carmine%Troiano%NULL%1,                           Giampaolo%Benelli%NULL%1,                           Elisabetta%Buscarini%NULL%1,                           Ciro%Canetta%NULL%1,                           Guido%Merli%NULL%1,                           Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                           Emna%Ennouri%NULL%1,                           Rayane%Nachi%NULL%1,                           Khaoula%Meddeb%NULL%1,                           Jihene%Mahmoud%NULL%1,                           Nesrine%Thabet%NULL%1,                           Salma%Jerbi%NULL%1,                           Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                           Eleni%Xourgia%NULL%1,                           Theodora K.%Ntaidou%NULL%1,                           Dimitris%Zervakis%NULL%1,                           Eleni E.%Magira%NULL%1,                           Anastasia%Kotanidou%NULL%1,                           Christina%Routsi%NULL%1,                           Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                           Carina%Mostert%NULL%1,                           Corinna%Hentschker%NULL%1,                           Thomas%Voshaar%NULL%1,                           Jürgen%Malzahn%NULL%1,                           Gerhard%Schillinger%NULL%1,                           Jürgen%Klauber%NULL%1,                           Uwe%Janssens%NULL%1,                           Gernot%Marx%NULL%1,                           Steffen%Weber-Carstens%NULL%1,                           Stefan%Kluge%NULL%0,                           Michael%Pfeifer%NULL%1,                           Linus%Grabenhenrich%NULL%1,                           Tobias%Welte%NULL%1,                           Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                           David%Hajage%NULL%2,                           David%Hajage%NULL%0,                           Alexandre%Demoule%NULL%1,                           Tài%Pham%NULL%1,                           Alain%Combes%NULL%1,                           Martin%Dres%NULL%1,                           Said%Lebbah%NULL%1,                           Antoine%Kimmoun%NULL%1,                           Alain%Mercat%NULL%1,                           Gaëtan%Beduneau%NULL%1,                           Jessica%Palmyre%NULL%1,                           Margot%Prevost%NULL%1,                           Pierre%Asfar%NULL%1,                           François%Beloncle%NULL%1,                           Julien%Demiselle%NULL%1,                           Arthur%Pavot%NULL%1,                           Xavier%Monnet%NULL%1,                           Christian%Richard%NULL%1,                           Julien%Mayaux%NULL%1,                           Alexandra%Beurton%NULL%1,                           Richard%Descamps%NULL%1,                           Aurélie%Joret%NULL%1,                           Damien%Du Cheyron%NULL%1,                           Frédéric%Pene%NULL%1,                           Jean-Daniel%Chiche%NULL%1,                           Mathieu%Jozwiak%NULL%1,                           Paul%Jaubert%NULL%1,                           Guillaume%Voiriot%NULL%1,                           Muriel%Fartoukh%NULL%1,                           Marion%Teulier%NULL%1,                           Clarisse%Blayau%NULL%1,                           Erwen%L’Her%NULL%1,                           Cécile%Aubron%NULL%1,                           Laetitia%Bodenes%NULL%1,                           Nicolas%Ferriere%NULL%1,                           Johann%Auchabie%NULL%1,                           Anthony%Le Meur%NULL%1,                           Sylvain%Pignal%NULL%1,                           Thierry%Mazzoni%NULL%1,                           Jean-Pierre%Quenot%NULL%1,                           Pascal%Andreu%NULL%1,                           Jean-Baptiste%Roudau%NULL%1,                           Marie%Labruyère%NULL%1,                           Saad%Nseir%NULL%0,                           Sébastien%Preau%NULL%1,                           Julien%Poissy%NULL%0,                           Daniel%Mathieu%NULL%0,                           Sarah%Benhamida%NULL%1,                           Rémi%Paulet%NULL%1,                           Nicolas%Roucaud%NULL%1,                           Martial%Thyrault%NULL%1,                           Florence%Daviet%NULL%1,                           Sami%Hraiech%NULL%1,                           Gabriel%Parzy%NULL%1,                           Aude%Sylvestre%NULL%1,                           Sébastien%Jochmans%NULL%1,                           Anne-Laure%Bouilland%NULL%1,                           Mehran%Monchi%NULL%1,                           Marc%Danguy des Déserts%NULL%1,                           Quentin%Mathais%NULL%1,                           Gwendoline%Rager%NULL%1,                           Pierre%Pasquier%NULL%1,                           Reignier%Jean%NULL%1,                           Seguin%Amélie%NULL%1,                           Garret%Charlotte%NULL%1,                           Canet%Emmanuel%NULL%1,                           Jean%Dellamonica%NULL%1,                           Clément%Saccheri%NULL%1,                           Romain%Lombardi%NULL%1,                           Yanis%Kouchit%NULL%1,                           Sophie%Jacquier%NULL%1,                           Armelle%Mathonnet%NULL%1,                           Mai-Ahn%Nay%NULL%1,                           Isabelle%Runge%NULL%1,                           Frédéric%Martino%NULL%1,                           Laure%Flurin%NULL%1,                           Amélie%Rolle%NULL%1,                           Michel%Carles%NULL%1,                           Rémi%Coudroy%NULL%1,                           Arnaud W.%Thille%NULL%1,                           Jean-Pierre%Frat%NULL%1,                           Maeva%Rodriguez%NULL%1,                           Pascal%Beuret%NULL%1,                           Audrey%Tientcheu%NULL%1,                           Arthur%Vincent%NULL%1,                           Florian%Michelin%NULL%1,                           Marie Anne%Melone%NULL%1,                           Maxime%Gauzi%NULL%1,                           Arnaud%Guilbert%NULL%1,                           Geoffrey%Kouadri%NULL%1,                           Valérie%Gissot%NULL%1,                           Stéphan%Ehrmann%NULL%1,                           Charlotte%Salmon-Gandonnière%NULL%1,                           Djlali%Elaroussi%NULL%1,                           Agathe%Delbove%NULL%1,                           Yannick%Fedun%NULL%1,                           Julien%Huntzinger%NULL%1,                           Eddy%Lebas%NULL%1,                           Grâce%Kisoka%NULL%1,                           Céline%Grégoire%NULL%1,                           Stella%Marchetta%NULL%1,                           Bernard%Lambermont%NULL%1,                           Laurent%Argaud%NULL%1,                           Thomas%Baudry%NULL%1,                           Pierre-Jean%Bertrand%NULL%1,                           Auguste%Dargent%NULL%1,                           Christophe%Guitton%NULL%1,                           Nicolas%Chudeau%NULL%1,                           Mickaël%Landais%NULL%1,                           Cédric%Darreau%NULL%1,                           Alexis%Ferre%NULL%1,                           Antoine%Gros%NULL%1,                           Guillaume%Lacave%NULL%1,                           Fabrice%Bruneel%NULL%1,                           Mathilde%Neuville%NULL%1,                           Jérôme%Devaquet%NULL%1,                           Guillaume%Tachon%NULL%1,                           Richard%Gallot%NULL%1,                           Riad%Chelha%NULL%1,                           Arnaud%Galbois%NULL%1,                           Anne%Jallot%NULL%1,                           Ludivine Chalumeau%Lemoine%NULL%1,                           Khaldoun%Kuteifan%NULL%1,                           Valentin%Pointurier%NULL%1,                           Louise-Marie%Jandeaux%NULL%1,                           Joy%Mootien%NULL%1,                           Charles%Damoisel%NULL%1,                           Benjamin%Sztrymf%NULL%1,                           Juliette%Chommeloux%NULL%1,                           Charles Edouard%Luyt%NULL%1,                           Frédérique%Schortgen%NULL%1,                           Leon%Rusel%NULL%1,                           Camille%Jung%NULL%1,                           Florent%Gobert%NULL%1,                           Damien%Vimpere%NULL%1,                           Lionel%Lamhaut%NULL%1,                           Bertrand%Sauneuf%NULL%1,                           Liliane%Charrier%NULL%1,                           Julien%Calus%NULL%1,                           Isabelle%Desmeules%NULL%1,                           Benoît%Painvin%NULL%1,                           Jean-Marc%Tadie%NULL%1,                           Vincent%Castelain%NULL%1,                           Baptiste%Michard%NULL%1,                           Jean-Etienne%Herbrecht%NULL%1,                           Mathieu%Baldacini%NULL%1,                           Nicolas%Weiss%NULL%1,                           Sophie%Demeret%NULL%1,                           Clémence%Marois%NULL%1,                           Benjamin%Rohaut%NULL%1,                           Pierre-Henri%Moury%NULL%1,                           Anne-Charlotte%Savida%NULL%1,                           Emmanuel%Couadau%NULL%1,                           Mathieu%Série%NULL%1,                           Nica%Alexandru%NULL%1,                           Cédric%Bruel%NULL%1,                           Candice%Fontaine%NULL%1,                           Sonia%Garrigou%NULL%1,                           Juliette Courtiade%Mahler%NULL%1,                           Maxime%Leclerc%NULL%1,                           Michel%Ramakers%NULL%1,                           Pierre%Garçon%NULL%1,                           Nicole%Massou%NULL%1,                           Ly Phacs%Van Vong%NULL%1,                           Juliane%Sen%NULL%1,                           Nolwenn%Lucas%NULL%1,                           Franck%Chemouni%NULL%1,                           Annabelle%Stoclin%NULL%1,                           Alexandre%Avenel%NULL%1,                           Henri%Faure%NULL%1,                           Angélie%Gentilhomme%NULL%1,                           Sylvie%Ricome%NULL%1,                           Paul%Abraham%NULL%1,                           Céline%Monard%NULL%1,                           Julien%Textoris%NULL%1,                           Thomas%Rimmele%NULL%1,                           Florent%Montini%NULL%1,                           Gabriel%Lejour%NULL%1,                           Thierry%Lazard%NULL%1,                           Isabelle%Etienney%NULL%1,                           Younes%Kerroumi%NULL%1,                           Dupuis%Claire%NULL%1,                           Bereiziat Marine%Coupez%NULL%1,                           Thouy%François%NULL%1,                           Clémet%Hoffmann%NULL%1,                           Nicolas%Donat%NULL%1,                           Violaine%Muller%NULL%1,                           Thibault%Martinez%NULL%1,                           Audrey%Jacquot%NULL%1,                           Matthieu%Mattei%NULL%1,                           Bruno%Levy%NULL%1,                           Ramin%Ravan%NULL%1,                           Loïc%Dopeux%NULL%1,                           Jean-Mathias%Liteaudon%NULL%1,                           Delphine%Roux%NULL%1,                           Brice%Rey%NULL%1,                           Radu%Anghel%NULL%1,                           Deborah%Schenesse%NULL%1,                           Vincent%Gevrey%NULL%1,                           Jermy%Castanera%NULL%1,                           Philippe%Petua%NULL%1,                           Benjamin%Madeux%NULL%1,                           Otto%Hartman%NULL%1,                           Michael%Piagnerelli%NULL%1,                           Anne%Joosten%NULL%1,                           Cinderella%Noel%NULL%1,                           Patrick%Biston%NULL%1,                           Thibaut%Noel%NULL%1,                           Gurvan L. E.%Bouar%NULL%1,                           Messabi%Boukhanza%NULL%1,                           Elsa%Demarest%NULL%1,                           Marie-France%Bajolet%NULL%1,                           Nathanaël%Charrier%NULL%1,                           Audrey%Quenet%NULL%1,                           Cécile%Zylberfajn%NULL%1,                           Nicolas%Dufour%NULL%1,                           Buno%Mégarbane%NULL%1,                           Sqébastian%Voicu%NULL%1,                           Nicolas%Deye%NULL%1,                           Isabelle%Malissin%NULL%1,                           François%Legay%NULL%1,                           Matthieu%Debarre%NULL%1,                           Nicolas%Barbarot%NULL%1,                           Pierre%Fillatre%NULL%1,                           Bertrand%Delord%NULL%1,                           Thomas%Laterrade%NULL%1,                           Tahar%Saghi%NULL%1,                           Wilfried%Pujol%NULL%1,                           Pierre Julien%Cungi%NULL%1,                           Pierre%Esnault%NULL%1,                           Mickael%Cardinale%NULL%1,                           Vivien%Hong Tuan Ha%NULL%1,                           Grégory%Fleury%NULL%1,                           Marie-Ange%Brou%NULL%1,                           Daniel%Zafimahazo%NULL%1,                           David%Tran-Van%NULL%1,                           Patrick%Avargues%NULL%1,                           Lisa%Carenco%NULL%1,                           Nicolas%Robin%NULL%1,                           Alexandre%Ouali%NULL%1,                           Lucie%Houdou%NULL%1,                           Christophe%Le Terrier%NULL%1,                           Noémie%Suh%NULL%1,                           Steve%Primmaz%NULL%1,                           Jérome%Pugin%NULL%1,                           Emmanuel%Weiss%NULL%1,                           Tobias%Gauss%NULL%1,                           Jean-Denis%Moyer%NULL%1,                           Catherine%Paugam-Burtz%NULL%1,                           Béatrice%La Combe%NULL%1,                           Rolland%Smonig%NULL%1,                           Jade%Violleau%NULL%1,                           Pauline%Cailliez%NULL%1,                           Jonathan%Chelly%NULL%1,                           Antoine%Marchalot%NULL%1,                           Cécile%Saladin%NULL%1,                           Christelle%Bigot%NULL%1,                           Pierre-Marie%Fayolle%NULL%1,                           Jules%Fatséas%NULL%1,                           Amr%Ibrahim%NULL%1,                           Dabor%Resiere%NULL%1,                           Rabih%Hage%NULL%1,                           Clémentine%Cholet%NULL%1,                           Marie%Cantier%NULL%1,                           Pierre%Trouiller%NULL%1,                           Philippe%Montravers%NULL%1,                           Brice%Lortat-Jacob%NULL%1,                           Sebastien%Tanaka%NULL%1,                           Alexy%Tran-Dinh%NULL%1,                           Jacques%Duranteau%NULL%1,                           Anatole%Harrois%NULL%1,                           Guillaume%Dubreuil%NULL%1,                           Marie%Werner%NULL%1,                           Anne%Godier%NULL%1,                           Sophie%Hamada%NULL%1,                           Diane%Zlotnik%NULL%1,                           Hélène%Nougue%NULL%1,                           Armand%Mekontso-Dessap%NULL%1,                           Guillaume%Carteaux%NULL%1,                           Keyvan%Razazi%NULL%1,                           Nicolas%De Prost%NULL%1,                           Nicolas%Mongardon%NULL%1,                           Olivier%Langeron%NULL%1,                           Eric%Levesque%NULL%1,                           Arié%Attias%NULL%1,                           Charles%de Roquetaillade%NULL%1,                           Benjamin G.%Chousterman%NULL%1,                           Alexandre%Mebazaa%NULL%1,                           Etienne%Gayat%NULL%1,                           Marc%Garnier%NULL%1,                           Emmanuel%Pardo%NULL%1,                           Lea%Satre-Buisson%NULL%1,                           Christophe%Gutton%NULL%1,                           Elise%Yvin%NULL%1,                           Clémence%Marcault%NULL%1,                           Elie%Azoulay%NULL%1,                           Michael%Darmon%NULL%1,                           Nicolas%Bonnet%NULL%1,                           Nathan%Ebstein%NULL%1,                           Stéphane%Gaudry%NULL%1,                           Yves%Cohen%NULL%1,                            Hafid%Ait-Oufella%NULL%1,                           Geoffroy%Hariri%NULL%1,                           Tomas%Urbina%NULL%1,                           Sandie%Mazerand%NULL%1,                           Nicholas%Heming%NULL%1,                           Francesca%Santi%NULL%1,                           Pierre%Moine%NULL%1,                           Djillali%Annane%NULL%1,                           Adrien%Bouglé%NULL%1,                           Edris%Omar%NULL%1,                           Aymeric%Lancelot%NULL%1,                           Emmanuelle%Begot%NULL%1,                           Gaétan%Plantefeve%NULL%1,                           Damien%Contou%NULL%1,                           Hervé%Mentec%NULL%1,                           Olivier%Pajot%NULL%1,                           Stanislas%Faguer%NULL%1,                           Olivier%Cointault%NULL%1,                           Laurence%Lavayssiere%NULL%1,                           Marie-Béatrice%Nogier%NULL%1,                           Matthieu%Jamme%NULL%1,                           Claire%Pichereau%NULL%1,                           Jan%Hayon%NULL%1,                           Hervé%Outin%NULL%1,                           François%Dépret%NULL%1,                           Maxime%Coutrot%NULL%1,                           Maité%Chaussard%NULL%1,                           Lucie%Guillemet%NULL%1,                           Pierre%Goffin%NULL%1,                           Romain%Thouny%NULL%1,                           Julien%Guntz%NULL%1,                           Laurent%Jadot%NULL%1,                           Romain%Persichini%NULL%1,                           Vanessa%Jean-Michel%NULL%1,                           Hugues%Georges%NULL%1,                           Thomas%Caulier%NULL%1,                           Gaël%Pradel%NULL%1,                           Marie-Hélène%Hausermann%NULL%1,                           ThiMy Hue%Nguyen-Valat%NULL%1,                           Michel%Boudinaud%NULL%1,                           Emmanuel%Vivier%NULL%1,                           Sylvène%Rosseli%NULL%1,                           Gaël%Bourdin%NULL%1,                           Christian%Pommier%NULL%1,                           Marc%Vinclair%NULL%1,                           Simon%Poignant%NULL%1,                           Sandrine%Mons%NULL%1,                           Wulfran%Bougouin%NULL%1,                           Franklin%Bruna%NULL%1,                           Quentin%Maestraggi%NULL%1,                           Christian%Roth%NULL%1,                           Laurent%Bitker%NULL%1,                           François%Dhelft%NULL%1,                           Justine%Bonnet-Chateau%NULL%1,                           Mathilde%Filippelli%NULL%1,                           Tristan%Morichau-Beauchant%NULL%1,                           Stéphane%Thierry%NULL%1,                           Charlotte%Le Roy%NULL%1,                           Mélanie%Saint Jouan%NULL%1,                           Bruno%Goncalves%NULL%1,                           Aurélien%Mazeraud%NULL%1,                           Matthieu%Daniel%NULL%1,                           Tarek%Sharshar%NULL%1,                           Cyril%Cadoz%NULL%1,                           Rostane%Gaci%NULL%1,                           Sébastien%Gette%NULL%1,                           Guillaune%Louis%NULL%1,                           Sophe-Caroline%Sacleux%NULL%1,                           Marie-Amélie%Ordan%NULL%1,                           Aurélie%Cravoisy%NULL%1,                           Marie%Conrad%NULL%1,                           Guilhem%Courte%NULL%1,                           Sébastien%Gibot%NULL%1,                           Younès%Benzidi%NULL%1,                           Claudia%Casella%NULL%1,                           Laurent%Serpin%NULL%1,                           Jean-Lou%Setti%NULL%1,                           Marie-Catherine%Besse%NULL%1,                           Anna%Bourreau%NULL%1,                           Jérôme%Pillot%NULL%1,                           Caroline%Rivera%NULL%1,                           Camille%Vinclair%NULL%1,                           Marie-Aline%Robaux%NULL%1,                           Chloé%Achino%NULL%1,                           Marie-Charlotte%Delignette%NULL%1,                           Tessa%Mazard%NULL%1,                           Frédéric%Aubrun%NULL%1,                           Bruno%Bouchet%NULL%1,                           Aurélien%Frérou%NULL%1,                           Laura%Muller%NULL%1,                           Charlotte%Quentin%NULL%1,                           Samuel%Degoul%NULL%1,                           Xavier%Stihle%NULL%1,                           Claude%Sumian%NULL%1,                           Nicoletta%Bergero%NULL%1,                           Bernard%Lanaspre%NULL%1,                           Hervé%Quintard%NULL%1,                           Eve Marie%Maiziere%NULL%1,                           Pierre-Yves%Egreteau%NULL%1,                           Guillaume%Leloup%NULL%1,                           Florin%Berteau%NULL%1,                           Marjolaine%Cottrel%NULL%1,                           Marie%Bouteloup%NULL%1,                           Matthieu%Jeannot%NULL%1,                           Quentin%Blanc%NULL%1,                           Julien%Saison%NULL%1,                           Isabelle%Geneau%NULL%1,                           Romaric%Grenot%NULL%1,                           Abdel%Ouchike%NULL%1,                           Pascal%Hazera%NULL%1,                           Anne-Lyse%Masse%NULL%1,                           Suela%Demiri%NULL%1,                           Corinne%Vezinet%NULL%1,                           Elodie%Baron%NULL%1,                           Déborah%Benchetrit%NULL%1,                           Antoine%Monsel%NULL%1,                           Grégoire%Trebbia%NULL%1,                           Emmanuelle%Schaack%NULL%1,                           Raphaël%Lepecq%NULL%1,                           Mathieu%Bobet%NULL%1,                           Christophe%Vinsonneau%NULL%1,                           Thibault%Dekeyser%NULL%1,                           Quentin%Delforge%NULL%1,                           Imen%Rahmani%NULL%1,                           Bérengère%Vivet%NULL%1,                           Jonathan%Paillot%NULL%1,                           Lucie%Hierle%NULL%1,                           Claire%Chaignat%NULL%1,                           Sarah%Valette%NULL%1,                           Benoït%Her%NULL%1,                           Jennifier%Brunet%NULL%1,                           Mathieu%Page%NULL%1,                           Fabienne%Boiste%NULL%1,                           Anthony%Collin%NULL%1,                           Florent%Bavozet%NULL%2,                           Aude%Garin%NULL%1,                           Mohamed%Dlala%NULL%1,                           Kais%Mhamdi%NULL%1,                           Bassem%Beilouny%NULL%1,                           Alexandra%Lavalard%NULL%1,                           Severine%Perez%NULL%1,                           Benoit%Veber%NULL%1,                           Pierre-Gildas%Guitard%NULL%1,                           Philippe%Gouin%NULL%1,                           Anna%Lamacz%NULL%1,                           Fabienne%Plouvier%NULL%1,                           Bertrand P.%Delaborde%NULL%1,                           Aïssa%Kherchache%NULL%1,                           Amina%Chaalal%NULL%1,                           Jean-Damien%Ricard%NULL%1,                           Marc%Amouretti%NULL%1,                           Santiago%Freita-Ramos%NULL%1,                           Damien%Roux%NULL%1,                           Jean-Michel%Constantin%NULL%1,                           Mona%Assefi%NULL%1,                           Marine%Lecore%NULL%1,                           Agathe%Selves%NULL%1,                           Florian%Prevost%NULL%1,                           Christian%Lamer%NULL%1,                           Ruiying%Shi%NULL%1,                           Lyes%Knani%NULL%1,                           Sébastien%Pili-Floury%NULL%1,                           Lucie%Vettoretti%NULL%1,                           Michael%Levy%NULL%1,                           Lucile%Marsac%NULL%1,                           Stéphane%Dauger%NULL%1,                           Sophie%Guilmin-Crépon%NULL%1,                           Jean-Baptiste%Putegnat%NULL%1,                           Frédérique%Bayle%NULL%1,                           Maya%Perrou%NULL%1,                           Ghyslaine%Thao%NULL%1,                           Guillaume%Géri%NULL%1,                           Cyril%Charron%NULL%1,                           Xavier%Repessé%NULL%1,                           Antoine%Vieillard-Baron%NULL%1,                           Mathieu%Guilbart%NULL%1,                           Pierre-Alexandre%Roger%NULL%1,                           Sébastien%Hinard%NULL%1,                           Pierre-Yves%Macq%NULL%1,                           Kevin%Chaulier%NULL%1,                           Sylvie%Goutte%NULL%1,                           Patrick%Chillet%NULL%1,                           Anaïs%Pitta%NULL%1,                           Barbara%Darjent%NULL%1,                           Amandine%Bruneau%NULL%1,                           Sigismond%Lasocki%NULL%1,                           Maxime%Leger%NULL%1,                           Soizic%Gergaud%NULL%1,                           Pierre%Lemarie%NULL%1,                           Nicolas%Terzi%NULL%1,                           Carole%Schwebel%NULL%1,                           Anaïs%Dartevel%NULL%1,                           Louis-Marie%Galerneau%NULL%1,                           Jean-Luc%Diehl%NULL%1,                           Caroline%Hauw-Berlemont%NULL%0,                           Nicolas%Péron%NULL%1,                           Emmanuel%Guérot%NULL%1,                           Abolfazl Mohebbi%Amoli%NULL%1,                           Michel%Benhamou%NULL%1,                           Jean-Pierre%Deyme%NULL%1,                           Olivier%Andremont%NULL%1,                           Diane%Lena%NULL%1,                           Julien%Cady%NULL%1,                           Arnaud%Causeret%NULL%1,                           Arnaud%De La Chapelle%NULL%1,                           Christophe%Cracco%NULL%1,                           Stéphane%Rouleau%NULL%1,                           David%Schnell%NULL%1,                           Cécile%Lory%NULL%1,                           Thibault%Chapelle%NULL%1,                           Vincent%Bruckert%NULL%1,                           Julie%Garcia%NULL%1,                           Abdlazize%Sahraoui%NULL%1,                           Nathalie%Abbosh%NULL%1,                           Caroline%Bornstain%NULL%1,                           Pierre%Pernet%NULL%1,                           Florent%Poirson%NULL%1,                           Ahmed%Pasem%NULL%1,                           Philippe%Karoubi%NULL%1,                           Virginie%Poupinel%NULL%1,                           Caroline%Gauthier%NULL%1,                           François%Bouniol%NULL%1,                           Philippe%Feuchere%NULL%1,                           Florent%Bavozet%NULL%0,                           Anne%Heron%NULL%1,                           Serge%Carreira%NULL%1,                           Malo%Emery%NULL%1,                           Anne%Le Floch%NULL%1,                           Luana%Giovannangeli%NULL%1,                           Nicolas%Herzog%NULL%1,                           Christophe%Giacardi%NULL%1,                           Thibaut%Baudic%NULL%1,                           Chloé%Thill%NULL%1,                           Florence%Tubach%NULL%1,                           Olivier%Lesieur%NULL%1,                           Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,                           Max W.%Adelman%NULL%2,                           Maxwell A.%Hockstein%NULL%1,                           Chad J.%Robichaux%NULL%1,                           Johnathan A.%Edwards%NULL%1,                           Jane C.%Fazio%NULL%1,                           James M.%Blum%NULL%3,                           Craig S.%Jabaley%NULL%2,                           Mark%Caridi-Scheible%NULL%2,                           Greg S.%Martin%NULL%2,                           David J.%Murphy%NULL%3,                           Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                           Keum-Ju%Choi%NULL%1,                           Sun Ha%Choi%NULL%1,                           Shin Yup%Lee%NULL%1,                           Kyung Chan%Kim%NULL%1,                           Eun Jin%Kim%NULL%1,                           Jaehee%Lee%NULL%2,                           Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                           Siddique%Chaudhary%NULL%1,                           Kevin%Bryan Lo%NULL%2,                           Kevin%Bryan Lo%NULL%0,                           Robert%DeJoy%NULL%1,                           Fahad%Gul%NULL%1,                           Ricardo%Torres%NULL%1,                           Neal%Chaisson%NULL%2,                           Neal%Chaisson%NULL%0,                           Gabriel%Patarroyo-Aponte%NULL%2,                           Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                           Bruno L.%Ferreyro%NULL%2,                           Bruno L.%Ferreyro%NULL%0,                           Federico%Angriman%NULL%1,                           María%Hernández-Sanz%NULL%2,                           Egoitz%Arruti%NULL%1,                           Antoni%Torres%NULL%2,                           Jesús%Villar%NULL%1,                           Laurent%Brochard%NULL%1,                           Carlos%Ferrando%NULL%2,                           Ricard%Mellado-Artigas%NULL%1,                           María%Hernández-Sanz%NULL%0,                           Carlos%Ferrando%NULL%0,                           Marina%Vendrell%NULL%1,                           Gerard%Sánchez-Etayo%NULL%1,                           Amalia%Alcón%NULL%1,                           Isabel%Belda%NULL%1,                           Mercé%Agustí%NULL%1,                           Albert%Carramiñana%NULL%1,                           Isabel%Gracia%NULL%1,                           Miriam%Panzeri%NULL%1,                           Irene%León%NULL%1,                           Jaume%Balust%NULL%1,                           Ricard%Navarro%NULL%2,                           María José%Arguís%NULL%1,                           María José%Carretero%NULL%1,                           Cristina%Ibáñez%NULL%1,                           Juan%Perdomo%NULL%1,                           Antonio%López%NULL%1,                           Manuel%López-Baamonde%NULL%1,                           Tomás%Cuñat%NULL%1,                           Marta%Ubré%NULL%1,                           Antonio%Ojeda%NULL%1,                           Andrea%Calvo%NULL%1,                           Eva%Rivas%NULL%1,                           Paola%Hurtado%NULL%1,                           Roger%Pujol%NULL%1,                           Nuria%Martín%NULL%1,                           Javier%Tercero%NULL%1,                           Pepe%Sanahuja%NULL%1,                           Marta%Magaldi%NULL%1,                           Miquel%Coca%NULL%1,                           Elena%del Rio%NULL%1,                           Julia%Martínez-Ocon%NULL%1,                           Paula%Masgoret%NULL%1,                           Monserrat%Tio%NULL%1,                           Angel%Caballero%NULL%1,                           Raquel%Risco%NULL%1,                           Raquel%Bergé%NULL%1,                           Lidia%Gómez%NULL%1,                           Nicolás%de Riva%NULL%1,                           Ana%Ruiz%NULL%1,                           Beatriz%Tena%NULL%1,                           Sebastián%Jaramillo%NULL%1,                           José María%Balibrea%NULL%1,                           Francisco Borja de Borja%de Lacy%NULL%1,                           Ana%Otero%NULL%1,                           Ainitze%Ibarzabal%NULL%1,                           Raquel%Bravo%NULL%1,                           Anna%Carreras%NULL%1,                           Daniel%Martín-Barreda%NULL%1,                           Alfonso Jesús%Alias%NULL%1,                           Mariano%Balaguer%NULL%1,                           Jorge%Aliaga%NULL%1,                           Alex%Almuedo%NULL%1,                           Joan Ramón%Alonso%NULL%1,                           Rut%Andrea%NULL%1,                           Gerard Sergi%Angelès%NULL%1,                            Marilyn%Arias%NULL%1,                           Fátima%Aziz%NULL%1,                           Joan Ramon%Badía%NULL%1,                           Enric%Barbeta%NULL%1,                           Toni%Torres%NULL%1,                           Guillem%Batiste%NULL%1,                           Pau%Benet%NULL%1,                           Xavi%Borrat%NULL%1,                           María%Borrell%NULL%1,                           Ernest%Bragulat%NULL%1,                           Inmaculada%Carmona%NULL%1,                           Manuel%Castellà%NULL%1,                           Pedro%Castro%NULL%1,                           Joan%Ceravalls%NULL%1,                           Oscar%Comino%NULL%1,                           Claudia%Cucciniello%NULL%1,                           Clàudia%De Deray%NULL%1,                           Oriol%De Diego%NULL%1,                           Paula%De la Matta%NULL%1,                           Marta%Farrero%NULL%1,                           Javier%Fernández%NULL%1,                           Sara%Fernández%NULL%1,                           Anna%Fernández%NULL%1,                           Miquel%Ferrer%NULL%1,                           Ana%Fervienza%NULL%1,                           María%Tallo Forga%NULL%1,                           Daniel%Forné%NULL%1,                           Clàudia%Galán%NULL%1,                           Andrea%Gómez%NULL%1,                           Eduard%Guasch%NULL%1,                           María%Hernández-Tejero%NULL%1,                           Adriana%Jacas%NULL%1,                           Beltrán%Jiménez%NULL%1,                           Pere%Leyes%NULL%1,                           Teresa%López%NULL%1,                           José Antonio%Martínez%NULL%1,                           Graciela%Martínez-Pallí%NULL%1,                           Jordi%Mercadal%NULL%1,                           Guido%Muñoz%NULL%1,                           José%Muñoz%NULL%1,                           Ricard%Navarro%NULL%0,                           Josep María%Nicolás%NULL%1,                           José Tomás%Ortiz%NULL%1,                           Anna%Peiró%NULL%1,                           Manuel%Pérez%NULL%1,                           Esteban%Poch%NULL%1,                           Margarida%Pujol%NULL%1,                           Eduard%Quintana%NULL%1,                           Bartomeu%Ramis%NULL%1,                           Enric%Reverter%NULL%1,                           Irene%Rovira%NULL%1,                           Pablo%Ruiz%NULL%1,                           Elena%Sandoval%NULL%1,                           Stefan%Schneider%NULL%1,                           Oriol%Sibila%NULL%1,                           Carla%Solé%NULL%1,                           Alex%Soriano%NULL%1,                           Dolors%Soy%NULL%1,                           M.%Suárez%NULL%1,                           Adrián%Téllez%NULL%1,                           Néstor David%Toapanta%NULL%1,                           Antoni%Torres%NULL%0,                           Xavier%Urra%NULL%1,                           César%Aldecoa%NULL%1,                           Alicia%Bordell%NULL%1,                           Silvia%Martín%NULL%1,                           Judith%Andrés%NULL%1,                           Alberto Martínez%Ruiz%NULL%1,                           Gonzalo Tamayo%Medel%NULL%1,                           Iñaki Bilbao Bilbao%Villasante%NULL%1,                           Fernando Iturri%Clavero%NULL%1,                           Covadonga Peralta%Álvarez%NULL%1,                           Julia T.%Herrera Díez%NULL%1,                           Andrea García%Trancho%NULL%1,                           Iñaki Sainz %Mandiola%NULL%1,                           Carmen Ruano%Suarez%NULL%1,                           Angela Ruiz%Bocos%NULL%1,                           Eneritz Urrutia%Izagirre%NULL%1,                           Pablo Ortiz%de Urbina Fernández%NULL%1,                           Naiara Apodaka%López%NULL%1,                           Leire Prieto%Molano%NULL%1,                           Eunate Ganuza%Martínez%NULL%1,                           Iratxe Vallinas%Hidalgo%NULL%1,                           Karmele%de Orte Sancho%NULL%1,                           Celia González%Paniagua%NULL%1,                           Gemma Ortiz%Labrador%NULL%1,                           Mireia Pérez%Larrañaga%NULL%1,                           Marta López%Miguelez%NULL%1,                           Estíbaliz Bárcena%Andrés%NULL%1,                           Erik Urutxurtu%Laureano%NULL%1,                           Maria Jesús Maroño%Boedo%NULL%1,                           Blanca Escontrela%Rodríguez%NULL%1,                           Aitziber Ereñozaga%Camiruaga%NULL%1,                           Deiene Lasuen%Aguirre%NULL%1,                           Ainhoa Zabal%Maeztu%NULL%1,                           Ane Guereca%Gala%NULL%1,                           Iker Castelo%Korro%NULL%1,                           Andrés Álvarez%Campo%NULL%1,                           Alejandro Carcelen%Viana%NULL%1,                           Alejandro Alberdi%Enríquez%NULL%1,                           Xabier Ormazábal%Rementeria%NULL%1,                           Alberto Sánchez%Campos%NULL%1,                           Rosa Gutiérrez%Rico%NULL%1,                           Pablo Barbier%Damborenea%NULL%1,                           Marta Guerenabarrena%Momeñe%NULL%1,                           Borja Cuesta%Ruiz%NULL%1,                           Alejandro López%Rico%NULL%1,                           Ana Rojo%Polo%NULL%1,                           Covadonga García%Grijelmo%NULL%1,                           Mikel Celorrio%Reta%NULL%1,                           Eneko Martín%Arroyo%NULL%1,                           Leire Artaza%Aparicio%NULL%1,                           Iñaki Ituarte%Aspiazu%NULL%1,                           Ane Igeregi%Basabe%NULL%1,                           Itxaso Merino%Julian%NULL%1,                           Isabel Diaz%Rico%NULL%1,                           Maria Paz%Martínez%NULL%1,                           Ramón%Adalia Bartolomé%NULL%1,                           Luigi%Zattera%NULL%1,                           Irina Adalid%Hernandez%NULL%1,                           Leire Larrañaga%Altuna%NULL%1,                           Aina Serrallonga%Castells%NULL%1,                           Adriana Vílchez%Garcia%NULL%1,                           María%Núñez%NULL%1,                           Lorena%Román%NULL%1,                           Isabel Ramos%Delgado%NULL%1,                           Adela Benítez-Cano%Martínez%NULL%1,                           Mireia Chanzá%Albert%NULL%1,                           Juan Carlos Álvarez%García%NULL%1,                           Luis Aguilera%Cuchillo%NULL%1,                           Sandra Beltrán%de Heredia%NULL%1,                           Jesús Carazo%Cordobés%NULL%1,                           Carlos Alberto García%Bernedo%NULL%1,                           Fernando Escolano%Villén%NULL%1,                           Francisco Javier Redondo%Calvo%NULL%1,                           Rubén Villazala%González%NULL%1,                           Victor Baladron%González%NULL%1,                           Patricia%Faba%NULL%1,                           Omar%Montenegro%NULL%1,                           Natalia Bejarano%Ramírez%NULL%1,                           Sergio Marcos%Contreras%NULL%1,                           Alejandro Garcia%Rodríguez%NULL%1,                           Saleta Rey%Vázquez%NULL%1,                           Cristina Garcia%Pérez%NULL%1,                           Eva Higuera%Miguelez%NULL%1,                           Irene Pérez%Blanco%NULL%1,                           David García%Rivera%NULL%1,                           Ane Martín%de la Fuente%NULL%1,                           Marta%Pardo%NULL%1,                           Vanessa%Rodriguez%NULL%1,                           Unai%Bengoetxea%NULL%1,                           Fernando%Ramasco%NULL%1,                           Sheila Olga Santidrián%Bernal%NULL%1,                           Alvar Santa Cruz%Hernando%NULL%1,                           Antonio Planas%Roca%NULL%1,                           Carlos Figueroa%Yusta%NULL%1,                           Esther García%Villabona%NULL%1,                           Carmen Vallejo%Lantero%NULL%1,                           Eva Patiño%Rodriguez%NULL%1,                           Alvaro Esquivel%Toledo%NULL%1,                           David Arribas%Méndez%NULL%1,                           Mar Orts%Rodriguez%NULL%1,                           Rosa Méndez%Hernández%NULL%1,                           Jesús Nieves%Alonso%NULL%1,                           Inés Imaz%Artazcoz%NULL%1,                           Sonia Expósito%Carazo%NULL%1,                           Carlos Román%Guerrero%NULL%1,                           Elena Rojo%Rodríguez%NULL%1,                           Ricardo Moreno%González%NULL%1,                           Julia Hernando%Santos%NULL%1,                           Jara Torrente%Pérez%NULL%1,                           Esperanza Mata%Mena%NULL%1,                           Manuel José Muñoz%Martínez%NULL%1,                           Enrique Alday%Muñoz%NULL%1,                           Patricia Martin%Serrano%NULL%1,                           Laura Cotter%Muñoz%NULL%1,                           Amadea%Mjertan%NULL%1,                           Diego Gutierrez%Martínez%NULL%1,                           Carmen Rodríguez%García%NULL%1,                           Olaya Alonso%Viejo%NULL%1,                           Juan Alvarez%Pereira%NULL%1,                           Ana Carmona%Bonet%NULL%1,                           Diana Parrado%López%NULL%1,                           Eva%de Dios Tomas%NULL%1,                           Rafael Martín%Celemin%NULL%1,                           María Luisa Meilan%Paz%NULL%1,                           Luis Quecedo%Gutiérrez%NULL%1,                           Noemí Diaz%Velasco%NULL%1,                           Gabriel Martin%Hernández%NULL%1,                           Francisco Garcia%del Corral%NULL%1,                           Gloria Hernandez%Arias%NULL%1,                           David Rodriguez%Cuesta%NULL%1,                           Ana Gómez%Rice%NULL%1,                           Encarna Mateos%Sevillano%NULL%1,                           Natalia Olmos%Molpeceres%NULL%1,                           Beatriz%Domínguez%NULL%1,                           Ana Vázquez%Lima%NULL%1,                           Ángel%Candela%NULL%1,                           Ismael A. Acevedo%Bambaren%NULL%1,                           Maria Isabel Albala%Blanco%NULL%1,                           Paloma Alonso%Montoiro%NULL%1,                           Fernando Álvarez%Utrera%NULL%1,                           Juan Avellanosa%Esteruelas%NULL%1,                           Amal Azzam%López%NULL%1,                           Alberto José%Balvis%NULL%1,                           Balvis Tommaso%Bardi%NULL%1,                           María Beltrán%Martín%NULL%1,                           Jacobo Benatar%Haserfaty%NULL%1,                           Alberto Berruezo%Camacho%NULL%1,                           Laura Betolaza%Weimer%NULL%1,                           María%del Mar Carbonell Soto%NULL%1,                           Cristina Carrasco%Seral%NULL%1,                           Cristina Cerro %Zaballos%NULL%1,                           Elizabeth Claros%Llamas%NULL%1,                           Pilar Coleta%Orduna%NULL%1,                           Ingrid P. Cortes%Forero%NULL%1,                           Pascual Agustín Crespo%Aliseda%NULL%1,                           María Angélica%de Pablo Pajares%NULL%1,                           Yolanda Díez%Remesal%NULL%1,                           Trinidad Dorado%Díaz%NULL%1,                           Noemí Echevarría%Blasco%NULL%1,                           María Elena Elías%Martín%NULL%1,                           Javier Felices%Triviño%NULL%1,                           Natalia Fernández%López%NULL%1,                           Cristina Fernández%Martín%NULL%1,                           Natalia Ferreiro%Pozuelo%NULL%1,                           Luis Gajate%Martín%NULL%1,                           Clara Gallego%Santos%NULL%1,                           Diego Gil%Mayo%NULL%1,                           María Gómez%Rojo%NULL%1,                           Claudia González%Cibrián%NULL%1,                           Elena Herrera%López%NULL%1,                           Borja Hinojal%Olmedillo%NULL%1,                           Berta Iglesias%Gallego%NULL%1,                           Sassan%Khonsari%NULL%1,                           María Nuria Mane%Ruiz%NULL%1,                           María Manzanero%Arroyo%NULL%1,                           Ana María Mariscal%Ortega%NULL%1,                           Sara Martín%Burcio%NULL%1,                           María%del Carmen Martín González%NULL%1,                           Ascensión Martín%Grande%NULL%1,                           Jose Juan Martín%López%NULL%1,                           Cecilia Martín%Rabes%NULL%1,                           Marcos Martínez%Borja%NULL%1,                           Nilda Martínez%Castro%NULL%1,                           Adolfo Martínez%Pérez%NULL%1,                           Snejana%Matcan%NULL%1,                           Cristina Medrano%Viñas%NULL%1,                           Lisset Miguel%Herrera%NULL%1,                           Adrián Mira%Betancur%NULL%1,                           María Montiel%Carbajo%NULL%1,                           Javier Moya%Moradas%NULL%1,                           Lorena Muñoz%Pérez%NULL%1,                           Mónica Nuñez%Murias%NULL%1,                           Eva Ordiales%González%NULL%1,                           Óscar Ordoñez%Recio%NULL%1,                           Miguel Ángel Palomero%Rodriguez%NULL%1,                           Diego Parise%Roux%NULL%1,                           Lucia Pereira%Torres%NULL%1,                           David Pestaña%Lagunas%NULL%1,                           Juana María Pinto%Corraliza%NULL%1,                           Marian Prieto%Rodrigo%NULL%1,                           Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                           David Rodriguez%Esteban%NULL%1,                           Víctor Rojas%Pernia%NULL%1,                           Álvaro Ruigómez%Saiz%NULL%1,                           Bárbara Saavedra%Villarino%NULL%1,                           Noemí Samaranch%Palero%NULL%1,                           Gloria Santos%Pérez%NULL%1,                           Jaume Serna%Pérez%NULL%1,                           Ana Belén Serrano%Romero%NULL%1,                           Jesús Tercero%López%NULL%1,                           Carlos Tiscar%García%NULL%1,                           Marta%de la Torre Concostrina%NULL%1,                           Eva María Ureta%Mesa%NULL%1,                           Eva Velasco%Olarte%NULL%1,                           Judith Villahoz%Martínez%NULL%1,                           Raúl Villalaba%Palacios%NULL%1,                           Gema Villanueva%García%NULL%1,                           Cristina Vogel%de Medeiros%NULL%1,                           Soraya Gholamian%Ovejero%NULL%1,                           Marta Vicente%Orgaz%NULL%1,                           Patricia Lloreda%Herradon%NULL%1,                           Cristina Crespo%Gómez%NULL%1,                           Tatiana%Sarmiento-Trujillo%NULL%1,                           Noemí García%Medina%NULL%1,                           María Martínez%García%NULL%1,                           Carles Espinós%Ramírez%NULL%1,                           Nabil Mouhaffel%Rivero%NULL%1,                           Jose Antonio Bernia%Gil%NULL%1,                           Sonsoles%Martín%NULL%1,                           María Victoria%Moral%NULL%1,                           Josefina%Galán%NULL%1,                           Pilar%Paniagua%NULL%1,                           Sergio%Pérez%NULL%1,                           Albert%Bainac%NULL%1,                           Ana%Arias%NULL%1,                           Elsa%Ramil%NULL%1,                           Jorge%Escudero%NULL%1,                           Pablo%Monedero%NULL%1,                           Carmen%Cara%NULL%1,                           Andrea%Lara%NULL%1,                           Elena Mendez%Martínez%NULL%1,                           Jorge%Mendoza%NULL%1,                           Íñigo Rubio%Baines%NULL%1,                           Carmen Sala%Trull%NULL%1,                           Pablo Montero%López%NULL%1,                           Alfredo%Gea%NULL%1,                           Alejandro%Montero%NULL%1,                           Rocío Armero%Ibañez%NULL%1,                           Juan Vicente Llau%Pitarch%NULL%1,                           Fernando Rauer%Alcóver%NULL%1,                           Cristina Álvarez%Herreros%NULL%1,                           Cyntia Sánchez%Martín%NULL%1,                           Lucía López Ocáriz%Olmos%NULL%1,                           Marta Navas%Moruno%NULL%1,                           Fernando García%Montoto%NULL%1,                           M. F. Mirón%Rodriguez%NULL%1,                           Laura Fuentes%Coco%NULL%1,                           Cristina Hernández%Gamito%NULL%1,                           Antonio Barba%Orejudo%NULL%1,                           Luis Gerardo Smith%Vielma%NULL%1,                           Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                           Marta Donoso%Domínguez%NULL%1,                           Silvia Esquivel%Ramírez%NULL%1,                           José Antonio%Carbonell%NULL%1,                           Berta Monleón%López%NULL%1,                           Sara%Martínez-Castro%NULL%1,                           Gerardo%Aguilar%NULL%1,                           María Gestal Pablo%Casas%NULL%1,                           Angel Outeiro%Rosato%NULL%1,                           Andrea Naveiro%Pan%NULL%1,                           María Alonso%Portela%NULL%1,                           Adrián García%Romar%NULL%1,                           Eva Mosquera%Rodríguez%NULL%1,                           Diego Ruanova%Seijo%NULL%1,                           Pablo Rama%Maceiras%NULL%1,                           Francisco%Castro-Ceoane%NULL%1,                           Esther Moreno%López%NULL%1,                           Sergio%Gil%NULL%1,                           Julia Guillén%Antón%NULL%1,                           Patricia García-Consuegra%Tirado%NULL%1,                           Aurora Callau%Calvo%NULL%1,                           Laura Forés%Lisbona%NULL%1,                           María Carbonell%Romero%NULL%1,                           Belén Albericio%Gil%NULL%1,                           Laura Pradal%Jarne%NULL%1,                           María Soria%Lozano%NULL%1,                           Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                           Navjot Ariyana%Kaur%NULL%1,                           Daniel%Sacher%NULL%1,                           Oisin%O’Corragain%NULL%1,                           Daniel%Salerno%NULL%1,                           Parag%Desai%NULL%1,                           Sameep%Sehgal%NULL%1,                           Matthew%Gordon%NULL%2,                           Rohit%Gupta%NULL%2,                           Nathaniel%Marchetti%NULL%1,                           Huaqing%Zhao%NULL%2,                           Nicole%Patlakh%NULL%2,                           Gerard J.%Criner%NULL%1,                           Temple%University%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                           Dominik%Jarczak%NULL%1,                           Liina%Thasler%NULL%1,                           Martin%Bachmann%NULL%1,                           Frank%Schulte%NULL%1,                           Berthold%Bein%NULL%1,                           Christian Friedrich%Weber%NULL%1,                           Ulrich%Schäfer%NULL%1,                           Carsten%Veit%NULL%1,                           Hans-Peter%Hauber%NULL%1,                           Sebastian%Kopp%NULL%1,                           Karsten%Sydow%NULL%1,                           Andreas%de Weerth%NULL%0,                           Marc%Bota%NULL%1,                           Rüdiger%Schreiber%NULL%1,                           Oliver%Detsch%NULL%1,                           Jan-Peer%Rogmann%NULL%1,                           Daniel%Frings%NULL%0,                           Barbara%Sensen%NULL%1,                           Christoph%Burdelski%NULL%0,                           Olaf%Boenisch%NULL%1,                           Axel%Nierhaus%NULL%0,                           Geraldine%de Heer%NULL%0,                           Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                            Paolo%Comassi%NULL%1,                            Luca%Adriani%NULL%1,                            Giulio%Bergamaschini%NULL%1,                            Elena%Bertin%NULL%1,                            Raffaella%Borromeo%NULL%1,                            Serena%Corti%NULL%1,                            Federica%De Petri%NULL%1,                            Francesco%Dolci%NULL%1,                            Attilio%Galmozzi%NULL%1,                            Alberto%Gigliotti%NULL%1,                            Livio%Gualdoni%NULL%1,                            Claudia%Guerra%NULL%1,                            Anna%Khosthiova%NULL%1,                            Giovanni%Leati%NULL%1,                            Giuseppe%Lupi%NULL%1,                            Paolo%Moscato%NULL%1,                            Vittorio%Perotti%NULL%1,                            Miriam%Piantelli%NULL%1,                            Alain%Ruini%NULL%1,                            Silvia%Sportelli%NULL%1,                            Micaela%Susca%NULL%1,                            Carmine%Troiano%NULL%1,                            Giampaolo%Benelli%NULL%1,                            Elisabetta%Buscarini%NULL%1,                            Ciro%Canetta%NULL%1,                            Guido%Merli%NULL%1,                            Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                            Emna%Ennouri%NULL%1,                            Rayane%Nachi%NULL%1,                            Khaoula%Meddeb%NULL%1,                            Jihene%Mahmoud%NULL%1,                            Nesrine%Thabet%NULL%1,                            Salma%Jerbi%NULL%1,                            Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                            Eleni%Xourgia%NULL%1,                            Theodora K.%Ntaidou%NULL%1,                            Dimitris%Zervakis%NULL%1,                            Eleni E.%Magira%NULL%1,                            Anastasia%Kotanidou%NULL%1,                            Christina%Routsi%NULL%1,                            Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                            Carina%Mostert%NULL%1,                            Corinna%Hentschker%NULL%1,                            Thomas%Voshaar%NULL%1,                            Jürgen%Malzahn%NULL%1,                            Gerhard%Schillinger%NULL%1,                            Jürgen%Klauber%NULL%1,                            Uwe%Janssens%NULL%1,                            Gernot%Marx%NULL%1,                            Steffen%Weber-Carstens%NULL%1,                            Stefan%Kluge%NULL%0,                            Michael%Pfeifer%NULL%1,                            Linus%Grabenhenrich%NULL%1,                            Tobias%Welte%NULL%1,                            Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                            David%Hajage%NULL%2,                            David%Hajage%NULL%0,                            Alexandre%Demoule%NULL%1,                            Tài%Pham%NULL%1,                            Alain%Combes%NULL%1,                            Martin%Dres%NULL%1,                            Said%Lebbah%NULL%1,                            Antoine%Kimmoun%NULL%1,                            Alain%Mercat%NULL%1,                            Gaëtan%Beduneau%NULL%1,                            Jessica%Palmyre%NULL%1,                            Margot%Prevost%NULL%1,                            Pierre%Asfar%NULL%1,                            François%Beloncle%NULL%1,                            Julien%Demiselle%NULL%1,                            Arthur%Pavot%NULL%1,                            Xavier%Monnet%NULL%1,                            Christian%Richard%NULL%1,                            Julien%Mayaux%NULL%1,                            Alexandra%Beurton%NULL%1,                            Richard%Descamps%NULL%1,                            Aurélie%Joret%NULL%1,                            Damien%Du Cheyron%NULL%1,                            Frédéric%Pene%NULL%1,                            Jean-Daniel%Chiche%NULL%1,                            Mathieu%Jozwiak%NULL%1,                            Paul%Jaubert%NULL%1,                            Guillaume%Voiriot%NULL%1,                            Muriel%Fartoukh%NULL%1,                            Marion%Teulier%NULL%1,                            Clarisse%Blayau%NULL%1,                            Erwen%L’Her%NULL%1,                            Cécile%Aubron%NULL%1,                            Laetitia%Bodenes%NULL%1,                            Nicolas%Ferriere%NULL%1,                            Johann%Auchabie%NULL%1,                            Anthony%Le Meur%NULL%1,                            Sylvain%Pignal%NULL%1,                            Thierry%Mazzoni%NULL%1,                            Jean-Pierre%Quenot%NULL%1,                            Pascal%Andreu%NULL%1,                            Jean-Baptiste%Roudau%NULL%1,                            Marie%Labruyère%NULL%1,                            Saad%Nseir%NULL%0,                            Sébastien%Preau%NULL%1,                            Julien%Poissy%NULL%0,                            Daniel%Mathieu%NULL%0,                            Sarah%Benhamida%NULL%1,                            Rémi%Paulet%NULL%1,                            Nicolas%Roucaud%NULL%1,                            Martial%Thyrault%NULL%1,                            Florence%Daviet%NULL%1,                            Sami%Hraiech%NULL%1,                            Gabriel%Parzy%NULL%1,                            Aude%Sylvestre%NULL%1,                            Sébastien%Jochmans%NULL%1,                            Anne-Laure%Bouilland%NULL%1,                            Mehran%Monchi%NULL%1,                            Marc%Danguy des Déserts%NULL%1,                            Quentin%Mathais%NULL%1,                            Gwendoline%Rager%NULL%1,                            Pierre%Pasquier%NULL%1,                            Reignier%Jean%NULL%1,                            Seguin%Amélie%NULL%1,                            Garret%Charlotte%NULL%1,                            Canet%Emmanuel%NULL%1,                            Jean%Dellamonica%NULL%1,                            Clément%Saccheri%NULL%1,                            Romain%Lombardi%NULL%1,                            Yanis%Kouchit%NULL%1,                            Sophie%Jacquier%NULL%1,                            Armelle%Mathonnet%NULL%1,                            Mai-Ahn%Nay%NULL%1,                            Isabelle%Runge%NULL%1,                            Frédéric%Martino%NULL%1,                            Laure%Flurin%NULL%1,                            Amélie%Rolle%NULL%1,                            Michel%Carles%NULL%1,                            Rémi%Coudroy%NULL%1,                            Arnaud W.%Thille%NULL%1,                            Jean-Pierre%Frat%NULL%1,                            Maeva%Rodriguez%NULL%1,                            Pascal%Beuret%NULL%1,                            Audrey%Tientcheu%NULL%1,                            Arthur%Vincent%NULL%1,                            Florian%Michelin%NULL%1,                            Marie Anne%Melone%NULL%1,                            Maxime%Gauzi%NULL%1,                            Arnaud%Guilbert%NULL%1,                            Geoffrey%Kouadri%NULL%1,                            Valérie%Gissot%NULL%1,                            Stéphan%Ehrmann%NULL%1,                            Charlotte%Salmon-Gandonnière%NULL%1,                            Djlali%Elaroussi%NULL%1,                            Agathe%Delbove%NULL%1,                            Yannick%Fedun%NULL%1,                            Julien%Huntzinger%NULL%1,                            Eddy%Lebas%NULL%1,                            Grâce%Kisoka%NULL%1,                            Céline%Grégoire%NULL%1,                            Stella%Marchetta%NULL%1,                            Bernard%Lambermont%NULL%1,                            Laurent%Argaud%NULL%1,                            Thomas%Baudry%NULL%1,                            Pierre-Jean%Bertrand%NULL%1,                            Auguste%Dargent%NULL%1,                            Christophe%Guitton%NULL%1,                            Nicolas%Chudeau%NULL%1,                            Mickaël%Landais%NULL%1,                            Cédric%Darreau%NULL%1,                            Alexis%Ferre%NULL%1,                            Antoine%Gros%NULL%1,                            Guillaume%Lacave%NULL%1,                            Fabrice%Bruneel%NULL%1,                            Mathilde%Neuville%NULL%1,                            Jérôme%Devaquet%NULL%1,                            Guillaume%Tachon%NULL%1,                            Richard%Gallot%NULL%1,                            Riad%Chelha%NULL%1,                            Arnaud%Galbois%NULL%1,                            Anne%Jallot%NULL%1,                            Ludivine Chalumeau%Lemoine%NULL%1,                            Khaldoun%Kuteifan%NULL%1,                            Valentin%Pointurier%NULL%1,                            Louise-Marie%Jandeaux%NULL%1,                            Joy%Mootien%NULL%1,                            Charles%Damoisel%NULL%1,                            Benjamin%Sztrymf%NULL%1,                            Juliette%Chommeloux%NULL%1,                            Charles Edouard%Luyt%NULL%1,                            Frédérique%Schortgen%NULL%1,                            Leon%Rusel%NULL%1,                            Camille%Jung%NULL%1,                            Florent%Gobert%NULL%1,                            Damien%Vimpere%NULL%1,                            Lionel%Lamhaut%NULL%1,                            Bertrand%Sauneuf%NULL%1,                            Liliane%Charrier%NULL%1,                            Julien%Calus%NULL%1,                            Isabelle%Desmeules%NULL%1,                            Benoît%Painvin%NULL%1,                            Jean-Marc%Tadie%NULL%1,                            Vincent%Castelain%NULL%1,                            Baptiste%Michard%NULL%1,                            Jean-Etienne%Herbrecht%NULL%1,                            Mathieu%Baldacini%NULL%1,                            Nicolas%Weiss%NULL%1,                            Sophie%Demeret%NULL%1,                            Clémence%Marois%NULL%1,                            Benjamin%Rohaut%NULL%1,                            Pierre-Henri%Moury%NULL%1,                            Anne-Charlotte%Savida%NULL%1,                            Emmanuel%Couadau%NULL%1,                            Mathieu%Série%NULL%1,                            Nica%Alexandru%NULL%1,                            Cédric%Bruel%NULL%1,                            Candice%Fontaine%NULL%1,                            Sonia%Garrigou%NULL%1,                            Juliette Courtiade%Mahler%NULL%1,                            Maxime%Leclerc%NULL%1,                            Michel%Ramakers%NULL%1,                            Pierre%Garçon%NULL%1,                            Nicole%Massou%NULL%1,                            Ly Phacs%Van Vong%NULL%1,                            Juliane%Sen%NULL%1,                            Nolwenn%Lucas%NULL%1,                            Franck%Chemouni%NULL%1,                            Annabelle%Stoclin%NULL%1,                            Alexandre%Avenel%NULL%1,                            Henri%Faure%NULL%1,                            Angélie%Gentilhomme%NULL%1,                            Sylvie%Ricome%NULL%1,                            Paul%Abraham%NULL%1,                            Céline%Monard%NULL%1,                            Julien%Textoris%NULL%1,                            Thomas%Rimmele%NULL%1,                            Florent%Montini%NULL%1,                            Gabriel%Lejour%NULL%1,                            Thierry%Lazard%NULL%1,                            Isabelle%Etienney%NULL%1,                            Younes%Kerroumi%NULL%1,                            Dupuis%Claire%NULL%1,                            Bereiziat Marine%Coupez%NULL%1,                            Thouy%François%NULL%1,                            Clémet%Hoffmann%NULL%1,                            Nicolas%Donat%NULL%1,                            Violaine%Muller%NULL%1,                            Thibault%Martinez%NULL%1,                            Audrey%Jacquot%NULL%1,                            Matthieu%Mattei%NULL%1,                            Bruno%Levy%NULL%1,                            Ramin%Ravan%NULL%1,                            Loïc%Dopeux%NULL%1,                            Jean-Mathias%Liteaudon%NULL%1,                            Delphine%Roux%NULL%1,                            Brice%Rey%NULL%1,                            Radu%Anghel%NULL%1,                            Deborah%Schenesse%NULL%1,                            Vincent%Gevrey%NULL%1,                            Jermy%Castanera%NULL%1,                            Philippe%Petua%NULL%1,                            Benjamin%Madeux%NULL%1,                            Otto%Hartman%NULL%1,                            Michael%Piagnerelli%NULL%1,                            Anne%Joosten%NULL%1,                            Cinderella%Noel%NULL%1,                            Patrick%Biston%NULL%1,                            Thibaut%Noel%NULL%1,                            Gurvan L. E.%Bouar%NULL%1,                            Messabi%Boukhanza%NULL%1,                            Elsa%Demarest%NULL%1,                            Marie-France%Bajolet%NULL%1,                            Nathanaël%Charrier%NULL%1,                            Audrey%Quenet%NULL%1,                            Cécile%Zylberfajn%NULL%1,                            Nicolas%Dufour%NULL%1,                            Buno%Mégarbane%NULL%1,                            Sqébastian%Voicu%NULL%1,                            Nicolas%Deye%NULL%1,                            Isabelle%Malissin%NULL%1,                            François%Legay%NULL%1,                            Matthieu%Debarre%NULL%1,                            Nicolas%Barbarot%NULL%1,                            Pierre%Fillatre%NULL%1,                            Bertrand%Delord%NULL%1,                            Thomas%Laterrade%NULL%1,                            Tahar%Saghi%NULL%1,                            Wilfried%Pujol%NULL%1,                            Pierre Julien%Cungi%NULL%1,                            Pierre%Esnault%NULL%1,                            Mickael%Cardinale%NULL%1,                            Vivien%Hong Tuan Ha%NULL%1,                            Grégory%Fleury%NULL%1,                            Marie-Ange%Brou%NULL%1,                            Daniel%Zafimahazo%NULL%1,                            David%Tran-Van%NULL%1,                            Patrick%Avargues%NULL%1,                            Lisa%Carenco%NULL%1,                            Nicolas%Robin%NULL%1,                            Alexandre%Ouali%NULL%1,                            Lucie%Houdou%NULL%1,                            Christophe%Le Terrier%NULL%1,                            Noémie%Suh%NULL%1,                            Steve%Primmaz%NULL%1,                            Jérome%Pugin%NULL%1,                            Emmanuel%Weiss%NULL%1,                            Tobias%Gauss%NULL%1,                            Jean-Denis%Moyer%NULL%1,                            Catherine%Paugam-Burtz%NULL%1,                            Béatrice%La Combe%NULL%1,                            Rolland%Smonig%NULL%1,                            Jade%Violleau%NULL%1,                            Pauline%Cailliez%NULL%1,                            Jonathan%Chelly%NULL%1,                            Antoine%Marchalot%NULL%1,                            Cécile%Saladin%NULL%1,                            Christelle%Bigot%NULL%1,                            Pierre-Marie%Fayolle%NULL%1,                            Jules%Fatséas%NULL%1,                            Amr%Ibrahim%NULL%1,                            Dabor%Resiere%NULL%1,                            Rabih%Hage%NULL%1,                            Clémentine%Cholet%NULL%1,                            Marie%Cantier%NULL%1,                            Pierre%Trouiller%NULL%1,                            Philippe%Montravers%NULL%1,                            Brice%Lortat-Jacob%NULL%1,                            Sebastien%Tanaka%NULL%1,                            Alexy%Tran-Dinh%NULL%1,                            Jacques%Duranteau%NULL%1,                            Anatole%Harrois%NULL%1,                            Guillaume%Dubreuil%NULL%1,                            Marie%Werner%NULL%1,                            Anne%Godier%NULL%1,                            Sophie%Hamada%NULL%1,                            Diane%Zlotnik%NULL%1,                            Hélène%Nougue%NULL%1,                            Armand%Mekontso-Dessap%NULL%1,                            Guillaume%Carteaux%NULL%1,                            Keyvan%Razazi%NULL%1,                            Nicolas%De Prost%NULL%1,                            Nicolas%Mongardon%NULL%1,                            Olivier%Langeron%NULL%1,                            Eric%Levesque%NULL%1,                            Arié%Attias%NULL%1,                            Charles%de Roquetaillade%NULL%1,                            Benjamin G.%Chousterman%NULL%1,                            Alexandre%Mebazaa%NULL%1,                            Etienne%Gayat%NULL%1,                            Marc%Garnier%NULL%1,                            Emmanuel%Pardo%NULL%1,                            Lea%Satre-Buisson%NULL%1,                            Christophe%Gutton%NULL%1,                            Elise%Yvin%NULL%1,                            Clémence%Marcault%NULL%1,                            Elie%Azoulay%NULL%1,                            Michael%Darmon%NULL%1,                            Nicolas%Bonnet%NULL%1,                            Nathan%Ebstein%NULL%1,                            Stéphane%Gaudry%NULL%1,                            Yves%Cohen%NULL%1,                             Hafid%Ait-Oufella%NULL%1,                            Geoffroy%Hariri%NULL%1,                            Tomas%Urbina%NULL%1,                            Sandie%Mazerand%NULL%1,                            Nicholas%Heming%NULL%1,                            Francesca%Santi%NULL%1,                            Pierre%Moine%NULL%1,                            Djillali%Annane%NULL%1,                            Adrien%Bouglé%NULL%1,                            Edris%Omar%NULL%1,                            Aymeric%Lancelot%NULL%1,                            Emmanuelle%Begot%NULL%1,                            Gaétan%Plantefeve%NULL%1,                            Damien%Contou%NULL%1,                            Hervé%Mentec%NULL%1,                            Olivier%Pajot%NULL%1,                            Stanislas%Faguer%NULL%1,                            Olivier%Cointault%NULL%1,                            Laurence%Lavayssiere%NULL%1,                            Marie-Béatrice%Nogier%NULL%1,                            Matthieu%Jamme%NULL%1,                            Claire%Pichereau%NULL%1,                            Jan%Hayon%NULL%1,                            Hervé%Outin%NULL%1,                            François%Dépret%NULL%1,                            Maxime%Coutrot%NULL%1,                            Maité%Chaussard%NULL%1,                            Lucie%Guillemet%NULL%1,                            Pierre%Goffin%NULL%1,                            Romain%Thouny%NULL%1,                            Julien%Guntz%NULL%1,                            Laurent%Jadot%NULL%1,                            Romain%Persichini%NULL%1,                            Vanessa%Jean-Michel%NULL%1,                            Hugues%Georges%NULL%1,                            Thomas%Caulier%NULL%1,                            Gaël%Pradel%NULL%1,                            Marie-Hélène%Hausermann%NULL%1,                            ThiMy Hue%Nguyen-Valat%NULL%1,                            Michel%Boudinaud%NULL%1,                            Emmanuel%Vivier%NULL%1,                            Sylvène%Rosseli%NULL%1,                            Gaël%Bourdin%NULL%1,                            Christian%Pommier%NULL%1,                            Marc%Vinclair%NULL%1,                            Simon%Poignant%NULL%1,                            Sandrine%Mons%NULL%1,                            Wulfran%Bougouin%NULL%1,                            Franklin%Bruna%NULL%1,                            Quentin%Maestraggi%NULL%1,                            Christian%Roth%NULL%1,                            Laurent%Bitker%NULL%1,                            François%Dhelft%NULL%1,                            Justine%Bonnet-Chateau%NULL%1,                            Mathilde%Filippelli%NULL%1,                            Tristan%Morichau-Beauchant%NULL%1,                            Stéphane%Thierry%NULL%1,                            Charlotte%Le Roy%NULL%1,                            Mélanie%Saint Jouan%NULL%1,                            Bruno%Goncalves%NULL%1,                            Aurélien%Mazeraud%NULL%1,                            Matthieu%Daniel%NULL%1,                            Tarek%Sharshar%NULL%1,                            Cyril%Cadoz%NULL%1,                            Rostane%Gaci%NULL%1,                            Sébastien%Gette%NULL%1,                            Guillaune%Louis%NULL%1,                            Sophe-Caroline%Sacleux%NULL%1,                            Marie-Amélie%Ordan%NULL%1,                            Aurélie%Cravoisy%NULL%1,                            Marie%Conrad%NULL%1,                            Guilhem%Courte%NULL%1,                            Sébastien%Gibot%NULL%1,                            Younès%Benzidi%NULL%1,                            Claudia%Casella%NULL%1,                            Laurent%Serpin%NULL%1,                            Jean-Lou%Setti%NULL%1,                            Marie-Catherine%Besse%NULL%1,                            Anna%Bourreau%NULL%1,                            Jérôme%Pillot%NULL%1,                            Caroline%Rivera%NULL%1,                            Camille%Vinclair%NULL%1,                            Marie-Aline%Robaux%NULL%1,                            Chloé%Achino%NULL%1,                            Marie-Charlotte%Delignette%NULL%1,                            Tessa%Mazard%NULL%1,                            Frédéric%Aubrun%NULL%1,                            Bruno%Bouchet%NULL%1,                            Aurélien%Frérou%NULL%1,                            Laura%Muller%NULL%1,                            Charlotte%Quentin%NULL%1,                            Samuel%Degoul%NULL%1,                            Xavier%Stihle%NULL%1,                            Claude%Sumian%NULL%1,                            Nicoletta%Bergero%NULL%1,                            Bernard%Lanaspre%NULL%1,                            Hervé%Quintard%NULL%1,                            Eve Marie%Maiziere%NULL%1,                            Pierre-Yves%Egreteau%NULL%1,                            Guillaume%Leloup%NULL%1,                            Florin%Berteau%NULL%1,                            Marjolaine%Cottrel%NULL%1,                            Marie%Bouteloup%NULL%1,                            Matthieu%Jeannot%NULL%1,                            Quentin%Blanc%NULL%1,                            Julien%Saison%NULL%1,                            Isabelle%Geneau%NULL%1,                            Romaric%Grenot%NULL%1,                            Abdel%Ouchike%NULL%1,                            Pascal%Hazera%NULL%1,                            Anne-Lyse%Masse%NULL%1,                            Suela%Demiri%NULL%1,                            Corinne%Vezinet%NULL%1,                            Elodie%Baron%NULL%1,                            Déborah%Benchetrit%NULL%1,                            Antoine%Monsel%NULL%1,                            Grégoire%Trebbia%NULL%1,                            Emmanuelle%Schaack%NULL%1,                            Raphaël%Lepecq%NULL%1,                            Mathieu%Bobet%NULL%1,                            Christophe%Vinsonneau%NULL%1,                            Thibault%Dekeyser%NULL%1,                            Quentin%Delforge%NULL%1,                            Imen%Rahmani%NULL%1,                            Bérengère%Vivet%NULL%1,                            Jonathan%Paillot%NULL%1,                            Lucie%Hierle%NULL%1,                            Claire%Chaignat%NULL%1,                            Sarah%Valette%NULL%1,                            Benoït%Her%NULL%1,                            Jennifier%Brunet%NULL%1,                            Mathieu%Page%NULL%1,                            Fabienne%Boiste%NULL%1,                            Anthony%Collin%NULL%1,                            Florent%Bavozet%NULL%2,                            Aude%Garin%NULL%1,                            Mohamed%Dlala%NULL%1,                            Kais%Mhamdi%NULL%1,                            Bassem%Beilouny%NULL%1,                            Alexandra%Lavalard%NULL%1,                            Severine%Perez%NULL%1,                            Benoit%Veber%NULL%1,                            Pierre-Gildas%Guitard%NULL%1,                            Philippe%Gouin%NULL%1,                            Anna%Lamacz%NULL%1,                            Fabienne%Plouvier%NULL%1,                            Bertrand P.%Delaborde%NULL%1,                            Aïssa%Kherchache%NULL%1,                            Amina%Chaalal%NULL%1,                            Jean-Damien%Ricard%NULL%1,                            Marc%Amouretti%NULL%1,                            Santiago%Freita-Ramos%NULL%1,                            Damien%Roux%NULL%1,                            Jean-Michel%Constantin%NULL%1,                            Mona%Assefi%NULL%1,                            Marine%Lecore%NULL%1,                            Agathe%Selves%NULL%1,                            Florian%Prevost%NULL%1,                            Christian%Lamer%NULL%1,                            Ruiying%Shi%NULL%1,                            Lyes%Knani%NULL%1,                            Sébastien%Pili-Floury%NULL%1,                            Lucie%Vettoretti%NULL%1,                            Michael%Levy%NULL%1,                            Lucile%Marsac%NULL%1,                            Stéphane%Dauger%NULL%1,                            Sophie%Guilmin-Crépon%NULL%1,                            Jean-Baptiste%Putegnat%NULL%1,                            Frédérique%Bayle%NULL%1,                            Maya%Perrou%NULL%1,                            Ghyslaine%Thao%NULL%1,                            Guillaume%Géri%NULL%1,                            Cyril%Charron%NULL%1,                            Xavier%Repessé%NULL%1,                            Antoine%Vieillard-Baron%NULL%1,                            Mathieu%Guilbart%NULL%1,                            Pierre-Alexandre%Roger%NULL%1,                            Sébastien%Hinard%NULL%1,                            Pierre-Yves%Macq%NULL%1,                            Kevin%Chaulier%NULL%1,                            Sylvie%Goutte%NULL%1,                            Patrick%Chillet%NULL%1,                            Anaïs%Pitta%NULL%1,                            Barbara%Darjent%NULL%1,                            Amandine%Bruneau%NULL%1,                            Sigismond%Lasocki%NULL%1,                            Maxime%Leger%NULL%1,                            Soizic%Gergaud%NULL%1,                            Pierre%Lemarie%NULL%1,                            Nicolas%Terzi%NULL%1,                            Carole%Schwebel%NULL%1,                            Anaïs%Dartevel%NULL%1,                            Louis-Marie%Galerneau%NULL%1,                            Jean-Luc%Diehl%NULL%1,                            Caroline%Hauw-Berlemont%NULL%0,                            Nicolas%Péron%NULL%1,                            Emmanuel%Guérot%NULL%1,                            Abolfazl Mohebbi%Amoli%NULL%1,                            Michel%Benhamou%NULL%1,                            Jean-Pierre%Deyme%NULL%1,                            Olivier%Andremont%NULL%1,                            Diane%Lena%NULL%1,                            Julien%Cady%NULL%1,                            Arnaud%Causeret%NULL%1,                            Arnaud%De La Chapelle%NULL%1,                            Christophe%Cracco%NULL%1,                            Stéphane%Rouleau%NULL%1,                            David%Schnell%NULL%1,                            Cécile%Lory%NULL%1,                            Thibault%Chapelle%NULL%1,                            Vincent%Bruckert%NULL%1,                            Julie%Garcia%NULL%1,                            Abdlazize%Sahraoui%NULL%1,                            Nathalie%Abbosh%NULL%1,                            Caroline%Bornstain%NULL%1,                            Pierre%Pernet%NULL%1,                            Florent%Poirson%NULL%1,                            Ahmed%Pasem%NULL%1,                            Philippe%Karoubi%NULL%1,                            Virginie%Poupinel%NULL%1,                            Caroline%Gauthier%NULL%1,                            François%Bouniol%NULL%1,                            Philippe%Feuchere%NULL%1,                            Florent%Bavozet%NULL%0,                            Anne%Heron%NULL%1,                            Serge%Carreira%NULL%1,                            Malo%Emery%NULL%1,                            Anne%Le Floch%NULL%1,                            Luana%Giovannangeli%NULL%1,                            Nicolas%Herzog%NULL%1,                            Christophe%Giacardi%NULL%1,                            Thibaut%Baudic%NULL%1,                            Chloé%Thill%NULL%1,                            Florence%Tubach%NULL%1,                            Olivier%Lesieur%NULL%1,                            Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,                            Max W.%Adelman%NULL%2,                            Maxwell A.%Hockstein%NULL%1,                            Chad J.%Robichaux%NULL%1,                            Johnathan A.%Edwards%NULL%1,                            Jane C.%Fazio%NULL%1,                            James M.%Blum%NULL%3,                            Craig S.%Jabaley%NULL%2,                            Mark%Caridi-Scheible%NULL%2,                            Greg S.%Martin%NULL%2,                            David J.%Murphy%NULL%3,                            Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                            Keum-Ju%Choi%NULL%1,                            Sun Ha%Choi%NULL%1,                            Shin Yup%Lee%NULL%1,                            Kyung Chan%Kim%NULL%1,                            Eun Jin%Kim%NULL%1,                            Jaehee%Lee%NULL%2,                            Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                            Siddique%Chaudhary%NULL%1,                            Kevin%Bryan Lo%NULL%2,                            Kevin%Bryan Lo%NULL%0,                            Robert%DeJoy%NULL%1,                            Fahad%Gul%NULL%1,                            Ricardo%Torres%NULL%1,                            Neal%Chaisson%NULL%2,                            Neal%Chaisson%NULL%0,                            Gabriel%Patarroyo-Aponte%NULL%2,                            Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                            Bruno L.%Ferreyro%NULL%2,                            Bruno L.%Ferreyro%NULL%0,                            Federico%Angriman%NULL%1,                            María%Hernández-Sanz%NULL%2,                            Egoitz%Arruti%NULL%1,                            Antoni%Torres%NULL%2,                            Jesús%Villar%NULL%1,                            Laurent%Brochard%NULL%1,                            Carlos%Ferrando%NULL%2,                            Ricard%Mellado-Artigas%NULL%1,                            María%Hernández-Sanz%NULL%0,                            Carlos%Ferrando%NULL%0,                            Marina%Vendrell%NULL%1,                            Gerard%Sánchez-Etayo%NULL%1,                            Amalia%Alcón%NULL%1,                            Isabel%Belda%NULL%1,                            Mercé%Agustí%NULL%1,                            Albert%Carramiñana%NULL%1,                            Isabel%Gracia%NULL%1,                            Miriam%Panzeri%NULL%1,                            Irene%León%NULL%1,                            Jaume%Balust%NULL%1,                            Ricard%Navarro%NULL%2,                            María José%Arguís%NULL%1,                            María José%Carretero%NULL%1,                            Cristina%Ibáñez%NULL%1,                            Juan%Perdomo%NULL%1,                            Antonio%López%NULL%1,                            Manuel%López-Baamonde%NULL%1,                            Tomás%Cuñat%NULL%1,                            Marta%Ubré%NULL%1,                            Antonio%Ojeda%NULL%1,                            Andrea%Calvo%NULL%1,                            Eva%Rivas%NULL%1,                            Paola%Hurtado%NULL%1,                            Roger%Pujol%NULL%1,                            Nuria%Martín%NULL%1,                            Javier%Tercero%NULL%1,                            Pepe%Sanahuja%NULL%1,                            Marta%Magaldi%NULL%1,                            Miquel%Coca%NULL%1,                            Elena%del Rio%NULL%1,                            Julia%Martínez-Ocon%NULL%1,                            Paula%Masgoret%NULL%1,                            Monserrat%Tio%NULL%1,                            Angel%Caballero%NULL%1,                            Raquel%Risco%NULL%1,                            Raquel%Bergé%NULL%1,                            Lidia%Gómez%NULL%1,                            Nicolás%de Riva%NULL%1,                            Ana%Ruiz%NULL%1,                            Beatriz%Tena%NULL%1,                            Sebastián%Jaramillo%NULL%1,                            José María%Balibrea%NULL%1,                            Francisco Borja de Borja%de Lacy%NULL%1,                            Ana%Otero%NULL%1,                            Ainitze%Ibarzabal%NULL%1,                            Raquel%Bravo%NULL%1,                            Anna%Carreras%NULL%1,                            Daniel%Martín-Barreda%NULL%1,                            Alfonso Jesús%Alias%NULL%1,                            Mariano%Balaguer%NULL%1,                            Jorge%Aliaga%NULL%1,                            Alex%Almuedo%NULL%1,                            Joan Ramón%Alonso%NULL%1,                            Rut%Andrea%NULL%1,                            Gerard Sergi%Angelès%NULL%1,                             Marilyn%Arias%NULL%1,                            Fátima%Aziz%NULL%1,                            Joan Ramon%Badía%NULL%1,                            Enric%Barbeta%NULL%1,                            Toni%Torres%NULL%1,                            Guillem%Batiste%NULL%1,                            Pau%Benet%NULL%1,                            Xavi%Borrat%NULL%1,                            María%Borrell%NULL%1,                            Ernest%Bragulat%NULL%1,                            Inmaculada%Carmona%NULL%1,                            Manuel%Castellà%NULL%1,                            Pedro%Castro%NULL%1,                            Joan%Ceravalls%NULL%1,                            Oscar%Comino%NULL%1,                            Claudia%Cucciniello%NULL%1,                            Clàudia%De Deray%NULL%1,                            Oriol%De Diego%NULL%1,                            Paula%De la Matta%NULL%1,                            Marta%Farrero%NULL%1,                            Javier%Fernández%NULL%1,                            Sara%Fernández%NULL%1,                            Anna%Fernández%NULL%1,                            Miquel%Ferrer%NULL%1,                            Ana%Fervienza%NULL%1,                            María%Tallo Forga%NULL%1,                            Daniel%Forné%NULL%1,                            Clàudia%Galán%NULL%1,                            Andrea%Gómez%NULL%1,                            Eduard%Guasch%NULL%1,                            María%Hernández-Tejero%NULL%1,                            Adriana%Jacas%NULL%1,                            Beltrán%Jiménez%NULL%1,                            Pere%Leyes%NULL%1,                            Teresa%López%NULL%1,                            José Antonio%Martínez%NULL%1,                            Graciela%Martínez-Pallí%NULL%1,                            Jordi%Mercadal%NULL%1,                            Guido%Muñoz%NULL%1,                            José%Muñoz%NULL%1,                            Ricard%Navarro%NULL%0,                            Josep María%Nicolás%NULL%1,                            José Tomás%Ortiz%NULL%1,                            Anna%Peiró%NULL%1,                            Manuel%Pérez%NULL%1,                            Esteban%Poch%NULL%1,                            Margarida%Pujol%NULL%1,                            Eduard%Quintana%NULL%1,                            Bartomeu%Ramis%NULL%1,                            Enric%Reverter%NULL%1,                            Irene%Rovira%NULL%1,                            Pablo%Ruiz%NULL%1,                            Elena%Sandoval%NULL%1,                            Stefan%Schneider%NULL%1,                            Oriol%Sibila%NULL%1,                            Carla%Solé%NULL%1,                            Alex%Soriano%NULL%1,                            Dolors%Soy%NULL%1,                            M.%Suárez%NULL%1,                            Adrián%Téllez%NULL%1,                            Néstor David%Toapanta%NULL%1,                            Antoni%Torres%NULL%0,                            Xavier%Urra%NULL%1,                            César%Aldecoa%NULL%1,                            Alicia%Bordell%NULL%1,                            Silvia%Martín%NULL%1,                            Judith%Andrés%NULL%1,                            Alberto Martínez%Ruiz%NULL%1,                            Gonzalo Tamayo%Medel%NULL%1,                            Iñaki Bilbao Bilbao%Villasante%NULL%1,                            Fernando Iturri%Clavero%NULL%1,                            Covadonga Peralta%Álvarez%NULL%1,                            Julia T.%Herrera Díez%NULL%1,                            Andrea García%Trancho%NULL%1,                            Iñaki Sainz %Mandiola%NULL%1,                            Carmen Ruano%Suarez%NULL%1,                            Angela Ruiz%Bocos%NULL%1,                            Eneritz Urrutia%Izagirre%NULL%1,                            Pablo Ortiz%de Urbina Fernández%NULL%1,                            Naiara Apodaka%López%NULL%1,                            Leire Prieto%Molano%NULL%1,                            Eunate Ganuza%Martínez%NULL%1,                            Iratxe Vallinas%Hidalgo%NULL%1,                            Karmele%de Orte Sancho%NULL%1,                            Celia González%Paniagua%NULL%1,                            Gemma Ortiz%Labrador%NULL%1,                            Mireia Pérez%Larrañaga%NULL%1,                            Marta López%Miguelez%NULL%1,                            Estíbaliz Bárcena%Andrés%NULL%1,                            Erik Urutxurtu%Laureano%NULL%1,                            Maria Jesús Maroño%Boedo%NULL%1,                            Blanca Escontrela%Rodríguez%NULL%1,                            Aitziber Ereñozaga%Camiruaga%NULL%1,                            Deiene Lasuen%Aguirre%NULL%1,                            Ainhoa Zabal%Maeztu%NULL%1,                            Ane Guereca%Gala%NULL%1,                            Iker Castelo%Korro%NULL%1,                            Andrés Álvarez%Campo%NULL%1,                            Alejandro Carcelen%Viana%NULL%1,                            Alejandro Alberdi%Enríquez%NULL%1,                            Xabier Ormazábal%Rementeria%NULL%1,                            Alberto Sánchez%Campos%NULL%1,                            Rosa Gutiérrez%Rico%NULL%1,                            Pablo Barbier%Damborenea%NULL%1,                            Marta Guerenabarrena%Momeñe%NULL%1,                            Borja Cuesta%Ruiz%NULL%1,                            Alejandro López%Rico%NULL%1,                            Ana Rojo%Polo%NULL%1,                            Covadonga García%Grijelmo%NULL%1,                            Mikel Celorrio%Reta%NULL%1,                            Eneko Martín%Arroyo%NULL%1,                            Leire Artaza%Aparicio%NULL%1,                            Iñaki Ituarte%Aspiazu%NULL%1,                            Ane Igeregi%Basabe%NULL%1,                            Itxaso Merino%Julian%NULL%1,                            Isabel Diaz%Rico%NULL%1,                            Maria Paz%Martínez%NULL%1,                            Ramón%Adalia Bartolomé%NULL%1,                            Luigi%Zattera%NULL%1,                            Irina Adalid%Hernandez%NULL%1,                            Leire Larrañaga%Altuna%NULL%1,                            Aina Serrallonga%Castells%NULL%1,                            Adriana Vílchez%Garcia%NULL%1,                            María%Núñez%NULL%1,                            Lorena%Román%NULL%1,                            Isabel Ramos%Delgado%NULL%1,                            Adela Benítez-Cano%Martínez%NULL%1,                            Mireia Chanzá%Albert%NULL%1,                            Juan Carlos Álvarez%García%NULL%1,                            Luis Aguilera%Cuchillo%NULL%1,                            Sandra Beltrán%de Heredia%NULL%1,                            Jesús Carazo%Cordobés%NULL%1,                            Carlos Alberto García%Bernedo%NULL%1,                            Fernando Escolano%Villén%NULL%1,                            Francisco Javier Redondo%Calvo%NULL%1,                            Rubén Villazala%González%NULL%1,                            Victor Baladron%González%NULL%1,                            Patricia%Faba%NULL%1,                            Omar%Montenegro%NULL%1,                            Natalia Bejarano%Ramírez%NULL%1,                            Sergio Marcos%Contreras%NULL%1,                            Alejandro Garcia%Rodríguez%NULL%1,                            Saleta Rey%Vázquez%NULL%1,                            Cristina Garcia%Pérez%NULL%1,                            Eva Higuera%Miguelez%NULL%1,                            Irene Pérez%Blanco%NULL%1,                            David García%Rivera%NULL%1,                            Ane Martín%de la Fuente%NULL%1,                            Marta%Pardo%NULL%1,                            Vanessa%Rodriguez%NULL%1,                            Unai%Bengoetxea%NULL%1,                            Fernando%Ramasco%NULL%1,                            Sheila Olga Santidrián%Bernal%NULL%1,                            Alvar Santa Cruz%Hernando%NULL%1,                            Antonio Planas%Roca%NULL%1,                            Carlos Figueroa%Yusta%NULL%1,                            Esther García%Villabona%NULL%1,                            Carmen Vallejo%Lantero%NULL%1,                            Eva Patiño%Rodriguez%NULL%1,                            Alvaro Esquivel%Toledo%NULL%1,                            David Arribas%Méndez%NULL%1,                            Mar Orts%Rodriguez%NULL%1,                            Rosa Méndez%Hernández%NULL%1,                            Jesús Nieves%Alonso%NULL%1,                            Inés Imaz%Artazcoz%NULL%1,                            Sonia Expósito%Carazo%NULL%1,                            Carlos Román%Guerrero%NULL%1,                            Elena Rojo%Rodríguez%NULL%1,                            Ricardo Moreno%González%NULL%1,                            Julia Hernando%Santos%NULL%1,                            Jara Torrente%Pérez%NULL%1,                            Esperanza Mata%Mena%NULL%1,                            Manuel José Muñoz%Martínez%NULL%1,                            Enrique Alday%Muñoz%NULL%1,                            Patricia Martin%Serrano%NULL%1,                            Laura Cotter%Muñoz%NULL%1,                            Amadea%Mjertan%NULL%1,                            Diego Gutierrez%Martínez%NULL%1,                            Carmen Rodríguez%García%NULL%1,                            Olaya Alonso%Viejo%NULL%1,                            Juan Alvarez%Pereira%NULL%1,                            Ana Carmona%Bonet%NULL%1,                            Diana Parrado%López%NULL%1,                            Eva%de Dios Tomas%NULL%1,                            Rafael Martín%Celemin%NULL%1,                            María Luisa Meilan%Paz%NULL%1,                            Luis Quecedo%Gutiérrez%NULL%1,                            Noemí Diaz%Velasco%NULL%1,                            Gabriel Martin%Hernández%NULL%1,                            Francisco Garcia%del Corral%NULL%1,                            Gloria Hernandez%Arias%NULL%1,                            David Rodriguez%Cuesta%NULL%1,                            Ana Gómez%Rice%NULL%1,                            Encarna Mateos%Sevillano%NULL%1,                            Natalia Olmos%Molpeceres%NULL%1,                            Beatriz%Domínguez%NULL%1,                            Ana Vázquez%Lima%NULL%1,                            Ángel%Candela%NULL%1,                            Ismael A. Acevedo%Bambaren%NULL%1,                            Maria Isabel Albala%Blanco%NULL%1,                            Paloma Alonso%Montoiro%NULL%1,                            Fernando Álvarez%Utrera%NULL%1,                            Juan Avellanosa%Esteruelas%NULL%1,                            Amal Azzam%López%NULL%1,                            Alberto José%Balvis%NULL%1,                            Balvis Tommaso%Bardi%NULL%1,                            María Beltrán%Martín%NULL%1,                            Jacobo Benatar%Haserfaty%NULL%1,                            Alberto Berruezo%Camacho%NULL%1,                            Laura Betolaza%Weimer%NULL%1,                            María%del Mar Carbonell Soto%NULL%1,                            Cristina Carrasco%Seral%NULL%1,                            Cristina Cerro %Zaballos%NULL%1,                            Elizabeth Claros%Llamas%NULL%1,                            Pilar Coleta%Orduna%NULL%1,                            Ingrid P. Cortes%Forero%NULL%1,                            Pascual Agustín Crespo%Aliseda%NULL%1,                            María Angélica%de Pablo Pajares%NULL%1,                            Yolanda Díez%Remesal%NULL%1,                            Trinidad Dorado%Díaz%NULL%1,                            Noemí Echevarría%Blasco%NULL%1,                            María Elena Elías%Martín%NULL%1,                            Javier Felices%Triviño%NULL%1,                            Natalia Fernández%López%NULL%1,                            Cristina Fernández%Martín%NULL%1,                            Natalia Ferreiro%Pozuelo%NULL%1,                            Luis Gajate%Martín%NULL%1,                            Clara Gallego%Santos%NULL%1,                            Diego Gil%Mayo%NULL%1,                            María Gómez%Rojo%NULL%1,                            Claudia González%Cibrián%NULL%1,                            Elena Herrera%López%NULL%1,                            Borja Hinojal%Olmedillo%NULL%1,                            Berta Iglesias%Gallego%NULL%1,                            Sassan%Khonsari%NULL%1,                            María Nuria Mane%Ruiz%NULL%1,                            María Manzanero%Arroyo%NULL%1,                            Ana María Mariscal%Ortega%NULL%1,                            Sara Martín%Burcio%NULL%1,                            María%del Carmen Martín González%NULL%1,                            Ascensión Martín%Grande%NULL%1,                            Jose Juan Martín%López%NULL%1,                            Cecilia Martín%Rabes%NULL%1,                            Marcos Martínez%Borja%NULL%1,                            Nilda Martínez%Castro%NULL%1,                            Adolfo Martínez%Pérez%NULL%1,                            Snejana%Matcan%NULL%1,                            Cristina Medrano%Viñas%NULL%1,                            Lisset Miguel%Herrera%NULL%1,                            Adrián Mira%Betancur%NULL%1,                            María Montiel%Carbajo%NULL%1,                            Javier Moya%Moradas%NULL%1,                            Lorena Muñoz%Pérez%NULL%1,                            Mónica Nuñez%Murias%NULL%1,                            Eva Ordiales%González%NULL%1,                            Óscar Ordoñez%Recio%NULL%1,                            Miguel Ángel Palomero%Rodriguez%NULL%1,                            Diego Parise%Roux%NULL%1,                            Lucia Pereira%Torres%NULL%1,                            David Pestaña%Lagunas%NULL%1,                            Juana María Pinto%Corraliza%NULL%1,                            Marian Prieto%Rodrigo%NULL%1,                            Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                            David Rodriguez%Esteban%NULL%1,                            Víctor Rojas%Pernia%NULL%1,                            Álvaro Ruigómez%Saiz%NULL%1,                            Bárbara Saavedra%Villarino%NULL%1,                            Noemí Samaranch%Palero%NULL%1,                            Gloria Santos%Pérez%NULL%1,                            Jaume Serna%Pérez%NULL%1,                            Ana Belén Serrano%Romero%NULL%1,                            Jesús Tercero%López%NULL%1,                            Carlos Tiscar%García%NULL%1,                            Marta%de la Torre Concostrina%NULL%1,                            Eva María Ureta%Mesa%NULL%1,                            Eva Velasco%Olarte%NULL%1,                            Judith Villahoz%Martínez%NULL%1,                            Raúl Villalaba%Palacios%NULL%1,                            Gema Villanueva%García%NULL%1,                            Cristina Vogel%de Medeiros%NULL%1,                            Soraya Gholamian%Ovejero%NULL%1,                            Marta Vicente%Orgaz%NULL%1,                            Patricia Lloreda%Herradon%NULL%1,                            Cristina Crespo%Gómez%NULL%1,                            Tatiana%Sarmiento-Trujillo%NULL%1,                            Noemí García%Medina%NULL%1,                            María Martínez%García%NULL%1,                            Carles Espinós%Ramírez%NULL%1,                            Nabil Mouhaffel%Rivero%NULL%1,                            Jose Antonio Bernia%Gil%NULL%1,                            Sonsoles%Martín%NULL%1,                            María Victoria%Moral%NULL%1,                            Josefina%Galán%NULL%1,                            Pilar%Paniagua%NULL%1,                            Sergio%Pérez%NULL%1,                            Albert%Bainac%NULL%1,                            Ana%Arias%NULL%1,                            Elsa%Ramil%NULL%1,                            Jorge%Escudero%NULL%1,                            Pablo%Monedero%NULL%1,                            Carmen%Cara%NULL%1,                            Andrea%Lara%NULL%1,                            Elena Mendez%Martínez%NULL%1,                            Jorge%Mendoza%NULL%1,                            Íñigo Rubio%Baines%NULL%1,                            Carmen Sala%Trull%NULL%1,                            Pablo Montero%López%NULL%1,                            Alfredo%Gea%NULL%1,                            Alejandro%Montero%NULL%1,                            Rocío Armero%Ibañez%NULL%1,                            Juan Vicente Llau%Pitarch%NULL%1,                            Fernando Rauer%Alcóver%NULL%1,                            Cristina Álvarez%Herreros%NULL%1,                            Cyntia Sánchez%Martín%NULL%1,                            Lucía López Ocáriz%Olmos%NULL%1,                            Marta Navas%Moruno%NULL%1,                            Fernando García%Montoto%NULL%1,                            M. F. Mirón%Rodriguez%NULL%1,                            Laura Fuentes%Coco%NULL%1,                            Cristina Hernández%Gamito%NULL%1,                            Antonio Barba%Orejudo%NULL%1,                            Luis Gerardo Smith%Vielma%NULL%1,                            Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                            Marta Donoso%Domínguez%NULL%1,                            Silvia Esquivel%Ramírez%NULL%1,                            José Antonio%Carbonell%NULL%1,                            Berta Monleón%López%NULL%1,                            Sara%Martínez-Castro%NULL%1,                            Gerardo%Aguilar%NULL%1,                            María Gestal Pablo%Casas%NULL%1,                            Angel Outeiro%Rosato%NULL%1,                            Andrea Naveiro%Pan%NULL%1,                            María Alonso%Portela%NULL%1,                            Adrián García%Romar%NULL%1,                            Eva Mosquera%Rodríguez%NULL%1,                            Diego Ruanova%Seijo%NULL%1,                            Pablo Rama%Maceiras%NULL%1,                            Francisco%Castro-Ceoane%NULL%1,                            Esther Moreno%López%NULL%1,                            Sergio%Gil%NULL%1,                            Julia Guillén%Antón%NULL%1,                            Patricia García-Consuegra%Tirado%NULL%1,                            Aurora Callau%Calvo%NULL%1,                            Laura Forés%Lisbona%NULL%1,                            María Carbonell%Romero%NULL%1,                            Belén Albericio%Gil%NULL%1,                            Laura Pradal%Jarne%NULL%1,                            María Soria%Lozano%NULL%1,                            Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                            Navjot Ariyana%Kaur%NULL%1,                            Daniel%Sacher%NULL%1,                            Oisin%O’Corragain%NULL%1,                            Daniel%Salerno%NULL%1,                            Parag%Desai%NULL%1,                            Sameep%Sehgal%NULL%1,                            Matthew%Gordon%NULL%2,                            Rohit%Gupta%NULL%2,                            Nathaniel%Marchetti%NULL%1,                            Huaqing%Zhao%NULL%2,                            Nicole%Patlakh%NULL%2,                            Gerard J.%Criner%NULL%1,                            Temple%University%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                            Dominik%Jarczak%NULL%1,                            Liina%Thasler%NULL%1,                            Martin%Bachmann%NULL%1,                            Frank%Schulte%NULL%1,                            Berthold%Bein%NULL%1,                            Christian Friedrich%Weber%NULL%1,                            Ulrich%Schäfer%NULL%1,                            Carsten%Veit%NULL%1,                            Hans-Peter%Hauber%NULL%1,                            Sebastian%Kopp%NULL%1,                            Karsten%Sydow%NULL%1,                            Andreas%de Weerth%NULL%0,                            Marc%Bota%NULL%1,                            Rüdiger%Schreiber%NULL%1,                            Oliver%Detsch%NULL%1,                            Jan-Peer%Rogmann%NULL%1,                            Daniel%Frings%NULL%0,                            Barbara%Sensen%NULL%1,                            Christoph%Burdelski%NULL%0,                            Olaf%Boenisch%NULL%1,                            Axel%Nierhaus%NULL%0,                            Geraldine%de Heer%NULL%0,                            Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%0, Paolo%Comassi%NULL%1, Luca%Adriani%NULL%1, Giulio%Bergamaschini%NULL%1, Elena%Bertin%NULL%1, Raffaella%Borromeo%NULL%1, Serena%Corti%NULL%1, Federica%De Petri%NULL%1, Francesco%Dolci%NULL%1, Attilio%Galmozzi%NULL%1, Alberto%Gigliotti%NULL%1, Livio%Gualdoni%NULL%1, Claudia%Guerra%NULL%1, Anna%Khosthiova%NULL%1, Giovanni%Leati%NULL%1, Giuseppe%Lupi%NULL%1, Paolo%Moscato%NULL%1, Vittorio%Perotti%NULL%1, Miriam%Piantelli%NULL%1, Alain%Ruini%NULL%1, Silvia%Sportelli%NULL%1, Micaela%Susca%NULL%1, Carmine%Troiano%NULL%1, Giampaolo%Benelli%NULL%1, Elisabetta%Buscarini%NULL%1, Ciro%Canetta%NULL%1, Guido%Merli%NULL%1, Alessandro%Scartabellati%NULL%2, Giovanni%Melilli, B.S.C.%NULL%1, Roberto%Sfogliarini%NULL%1, Germano%Pellegatta%NULL%1, Giovanni%Viganò%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%0, Emna%Ennouri%NULL%1, Rayane%Nachi%NULL%1, Khaoula%Meddeb%NULL%1, Jihene%Mahmoud%NULL%1, Nesrine%Thabet%NULL%1, Salma%Jerbi%NULL%1, Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>The African Field Epidemiology Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Optimal timing of initiation of invasive mechanical ventilation in patients with acute hypoxemic respiratory failure due to COVID-19 is unknown.
+ Thanks to early flattening of the epidemiological curve, ventilator demand in Greece was kept lower than supply throughout the pandemic, allowing for unbiased comparison of the outcomes of patients undergoing early intubation vs.
+ delayed or no intubation.
+</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%0, Eleni%Xourgia%NULL%1, Theodora K.%Ntaidou%NULL%1, Dimitris%Zervakis%NULL%1, Eleni E.%Magira%NULL%1, Anastasia%Kotanidou%NULL%1, Christina%Routsi%NULL%1, Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%0, Carina%Mostert%NULL%1, Corinna%Hentschker%NULL%1, Thomas%Voshaar%NULL%1, Jürgen%Malzahn%NULL%1, Gerhard%Schillinger%NULL%1, Jürgen%Klauber%NULL%1, Uwe%Janssens%NULL%1, Gernot%Marx%NULL%1, Steffen%Weber-Carstens%NULL%1, Stefan%Kluge%NULL%0, Michael%Pfeifer%NULL%1, Linus%Grabenhenrich%NULL%1, Tobias%Welte%NULL%3, Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%0, David%Hajage%NULL%2, David%Hajage%NULL%0, Alexandre%Demoule%NULL%2, Tài%Pham%NULL%1, Alain%Combes%NULL%3, Martin%Dres%NULL%2, Said%Lebbah%NULL%1, Antoine%Kimmoun%NULL%0, Alain%Mercat%NULL%1, Gaëtan%Beduneau%NULL%1, Jessica%Palmyre%NULL%1, Margot%Prevost%NULL%1, Pierre%Asfar%NULL%1, François%Beloncle%NULL%1, Julien%Demiselle%NULL%1, Arthur%Pavot%NULL%1, Xavier%Monnet%NULL%1, Christian%Richard%NULL%1, Julien%Mayaux%NULL%1, Alexandra%Beurton%NULL%2, Richard%Descamps%NULL%1, Aurélie%Joret%NULL%1, Damien%Du Cheyron%NULL%1, Frédéric%Pene%NULL%1, Jean-Daniel%Chiche%NULL%2, Mathieu%Jozwiak%NULL%0, Paul%Jaubert%NULL%2, Guillaume%Voiriot%NULL%0, Muriel%Fartoukh%NULL%3, Marion%Teulier%NULL%1, Clarisse%Blayau%NULL%1, Erwen%L’Her%NULL%1, Cécile%Aubron%NULL%1, Laetitia%Bodenes%NULL%1, Nicolas%Ferriere%NULL%1, Johann%Auchabie%NULL%1, Anthony%Le Meur%NULL%1, Sylvain%Pignal%NULL%1, Thierry%Mazzoni%NULL%1, Jean-Pierre%Quenot%NULL%1, Pascal%Andreu%NULL%1, Jean-Baptiste%Roudau%NULL%1, Marie%Labruyère%NULL%1, Saad%Nseir%NULL%0, Sébastien%Preau%NULL%1, Julien%Poissy%NULL%0, Daniel%Mathieu%NULL%0, Sarah%Benhamida%NULL%1, Rémi%Paulet%NULL%1, Nicolas%Roucaud%NULL%1, Martial%Thyrault%NULL%1, Florence%Daviet%NULL%1, Sami%Hraiech%NULL%1, Gabriel%Parzy%NULL%1, Aude%Sylvestre%NULL%1, Sébastien%Jochmans%NULL%1, Anne-Laure%Bouilland%NULL%1, Mehran%Monchi%NULL%1, Marc%Danguy des Déserts%NULL%1, Quentin%Mathais%NULL%1, Gwendoline%Rager%NULL%1, Pierre%Pasquier%NULL%1, Reignier%Jean%NULL%1, Seguin%Amélie%NULL%1, Garret%Charlotte%NULL%1, Canet%Emmanuel%NULL%1, Jean%Dellamonica%NULL%1, Clément%Saccheri%NULL%1, Romain%Lombardi%NULL%1, Yanis%Kouchit%NULL%1, Sophie%Jacquier%NULL%1, Armelle%Mathonnet%NULL%1, Mai-Ahn%Nay%NULL%1, Isabelle%Runge%NULL%1, Frédéric%Martino%NULL%1, Laure%Flurin%NULL%1, Amélie%Rolle%NULL%1, Michel%Carles%NULL%1, Rémi%Coudroy%NULL%1, Arnaud W.%Thille%NULL%1, Jean-Pierre%Frat%NULL%1, Maeva%Rodriguez%NULL%1, Pascal%Beuret%NULL%1, Audrey%Tientcheu%NULL%1, Arthur%Vincent%NULL%1, Florian%Michelin%NULL%1, Marie Anne%Melone%NULL%1, Maxime%Gauzi%NULL%1, Arnaud%Guilbert%NULL%1, Geoffrey%Kouadri%NULL%1, Valérie%Gissot%NULL%1, Stéphan%Ehrmann%NULL%1, Charlotte%Salmon-Gandonnière%NULL%1, Djlali%Elaroussi%NULL%1, Agathe%Delbove%NULL%1, Yannick%Fedun%NULL%1, Julien%Huntzinger%NULL%1, Eddy%Lebas%NULL%1, Grâce%Kisoka%NULL%1, Céline%Grégoire%NULL%1, Stella%Marchetta%NULL%1, Bernard%Lambermont%NULL%1, Laurent%Argaud%NULL%1, Thomas%Baudry%NULL%1, Pierre-Jean%Bertrand%NULL%1, Auguste%Dargent%NULL%1, Christophe%Guitton%NULL%1, Nicolas%Chudeau%NULL%1, Mickaël%Landais%NULL%1, Cédric%Darreau%NULL%1, Alexis%Ferre%NULL%1, Antoine%Gros%NULL%1, Guillaume%Lacave%NULL%1, Fabrice%Bruneel%NULL%1, Mathilde%Neuville%NULL%1, Jérôme%Devaquet%NULL%1, Guillaume%Tachon%NULL%1, Richard%Gallot%NULL%1, Riad%Chelha%NULL%1, Arnaud%Galbois%NULL%1, Anne%Jallot%NULL%1, Ludivine Chalumeau%Lemoine%NULL%1, Khaldoun%Kuteifan%NULL%1, Valentin%Pointurier%NULL%1, Louise-Marie%Jandeaux%NULL%1, Joy%Mootien%NULL%1, Charles%Damoisel%NULL%1, Benjamin%Sztrymf%NULL%1, Juliette%Chommeloux%NULL%2, Charles Edouard%Luyt%NULL%1, Frédérique%Schortgen%NULL%1, Leon%Rusel%NULL%1, Camille%Jung%NULL%1, Florent%Gobert%NULL%1, Damien%Vimpere%NULL%1, Lionel%Lamhaut%NULL%1, Bertrand%Sauneuf%NULL%1, Liliane%Charrier%NULL%1, Julien%Calus%NULL%1, Isabelle%Desmeules%NULL%1, Benoît%Painvin%NULL%1, Jean-Marc%Tadie%NULL%1, Vincent%Castelain%NULL%2, Baptiste%Michard%NULL%1, Jean-Etienne%Herbrecht%NULL%1, Mathieu%Baldacini%NULL%1, Nicolas%Weiss%NULL%1, Sophie%Demeret%NULL%1, Clémence%Marois%NULL%1, Benjamin%Rohaut%NULL%1, Pierre-Henri%Moury%NULL%1, Anne-Charlotte%Savida%NULL%1, Emmanuel%Couadau%NULL%1, Mathieu%Série%NULL%1, Nica%Alexandru%NULL%1, Cédric%Bruel%NULL%1, Candice%Fontaine%NULL%1, Sonia%Garrigou%NULL%1, Juliette Courtiade%Mahler%NULL%1, Maxime%Leclerc%NULL%2, Michel%Ramakers%NULL%2, Pierre%Garçon%NULL%1, Nicole%Massou%NULL%1, Ly Phacs%Van Vong%NULL%1, Juliane%Sen%NULL%1, Nolwenn%Lucas%NULL%1, Franck%Chemouni%NULL%1, Annabelle%Stoclin%NULL%1, Alexandre%Avenel%NULL%1, Henri%Faure%NULL%1, Angélie%Gentilhomme%NULL%1, Sylvie%Ricome%NULL%1, Paul%Abraham%NULL%1, Céline%Monard%NULL%1, Julien%Textoris%NULL%1, Thomas%Rimmele%NULL%1, Florent%Montini%NULL%1, Gabriel%Lejour%NULL%1, Thierry%Lazard%NULL%1, Isabelle%Etienney%NULL%1, Younes%Kerroumi%NULL%1, Dupuis%Claire%NULL%1, Bereiziat Marine%Coupez%NULL%1, Thouy%François%NULL%1, Clémet%Hoffmann%NULL%1, Nicolas%Donat%NULL%1, Violaine%Muller%NULL%1, Thibault%Martinez%NULL%1, Audrey%Jacquot%NULL%1, Matthieu%Mattei%NULL%1, Bruno%Levy%NULL%0, Ramin%Ravan%NULL%1, Loïc%Dopeux%NULL%1, Jean-Mathias%Liteaudon%NULL%1, Delphine%Roux%NULL%1, Brice%Rey%NULL%1, Radu%Anghel%NULL%1, Deborah%Schenesse%NULL%1, Vincent%Gevrey%NULL%1, Jermy%Castanera%NULL%1, Philippe%Petua%NULL%1, Benjamin%Madeux%NULL%1, Otto%Hartman%NULL%1, Michael%Piagnerelli%NULL%1, Anne%Joosten%NULL%1, Cinderella%Noel%NULL%1, Patrick%Biston%NULL%1, Thibaut%Noel%NULL%1, Gurvan L. E.%Bouar%NULL%1, Messabi%Boukhanza%NULL%1, Elsa%Demarest%NULL%1, Marie-France%Bajolet%NULL%1, Nathanaël%Charrier%NULL%1, Audrey%Quenet%NULL%1, Cécile%Zylberfajn%NULL%1, Nicolas%Dufour%NULL%1, Buno%Mégarbane%NULL%1, Sqébastian%Voicu%NULL%1, Nicolas%Deye%NULL%1, Isabelle%Malissin%NULL%1, François%Legay%NULL%1, Matthieu%Debarre%NULL%1, Nicolas%Barbarot%NULL%1, Pierre%Fillatre%NULL%1, Bertrand%Delord%NULL%1, Thomas%Laterrade%NULL%1, Tahar%Saghi%NULL%1, Wilfried%Pujol%NULL%1, Pierre Julien%Cungi%NULL%1, Pierre%Esnault%NULL%1, Mickael%Cardinale%NULL%1, Vivien%Hong Tuan Ha%NULL%1, Grégory%Fleury%NULL%1, Marie-Ange%Brou%NULL%1, Daniel%Zafimahazo%NULL%1, David%Tran-Van%NULL%1, Patrick%Avargues%NULL%1, Lisa%Carenco%NULL%1, Nicolas%Robin%NULL%1, Alexandre%Ouali%NULL%1, Lucie%Houdou%NULL%1, Christophe%Le Terrier%NULL%1, Noémie%Suh%NULL%1, Steve%Primmaz%NULL%1, Jérome%Pugin%NULL%1, Emmanuel%Weiss%NULL%1, Tobias%Gauss%NULL%1, Jean-Denis%Moyer%NULL%1, Catherine%Paugam-Burtz%NULL%1, Béatrice%La Combe%NULL%1, Rolland%Smonig%NULL%1, Jade%Violleau%NULL%1, Pauline%Cailliez%NULL%1, Jonathan%Chelly%NULL%1, Antoine%Marchalot%NULL%1, Cécile%Saladin%NULL%1, Christelle%Bigot%NULL%1, Pierre-Marie%Fayolle%NULL%1, Jules%Fatséas%NULL%1, Amr%Ibrahim%NULL%1, Dabor%Resiere%NULL%1, Rabih%Hage%NULL%1, Clémentine%Cholet%NULL%1, Marie%Cantier%NULL%1, Pierre%Trouiller%NULL%1, Philippe%Montravers%NULL%1, Brice%Lortat-Jacob%NULL%1, Sebastien%Tanaka%NULL%1, Alexy%Tran-Dinh%NULL%1, Jacques%Duranteau%NULL%1, Anatole%Harrois%NULL%1, Guillaume%Dubreuil%NULL%1, Marie%Werner%NULL%1, Anne%Godier%NULL%1, Sophie%Hamada%NULL%1, Diane%Zlotnik%NULL%1, Hélène%Nougue%NULL%1, Armand%Mekontso-Dessap%NULL%1, Guillaume%Carteaux%NULL%1, Keyvan%Razazi%NULL%1, Nicolas%De Prost%NULL%1, Nicolas%Mongardon%NULL%1, Olivier%Langeron%NULL%1, Eric%Levesque%NULL%1, Arié%Attias%NULL%1, Charles%de Roquetaillade%NULL%1, Benjamin G.%Chousterman%NULL%1, Alexandre%Mebazaa%NULL%1, Etienne%Gayat%NULL%1, Marc%Garnier%NULL%1, Emmanuel%Pardo%NULL%1, Lea%Satre-Buisson%NULL%1, Christophe%Gutton%NULL%1, Elise%Yvin%NULL%1, Clémence%Marcault%NULL%1, Elie%Azoulay%NULL%0, Michael%Darmon%NULL%2, Nicolas%Bonnet%NULL%1, Nathan%Ebstein%NULL%1, Stéphane%Gaudry%NULL%1, Yves%Cohen%NULL%1,  Hafid%Ait-Oufella%NULL%1, Geoffroy%Hariri%NULL%1, Tomas%Urbina%NULL%1, Sandie%Mazerand%NULL%1, Nicholas%Heming%NULL%1, Francesca%Santi%NULL%2, Pierre%Moine%NULL%1, Djillali%Annane%NULL%1, Adrien%Bouglé%NULL%1, Edris%Omar%NULL%1, Aymeric%Lancelot%NULL%1, Emmanuelle%Begot%NULL%1, Gaétan%Plantefeve%NULL%1, Damien%Contou%NULL%1, Hervé%Mentec%NULL%1, Olivier%Pajot%NULL%1, Stanislas%Faguer%NULL%1, Olivier%Cointault%NULL%1, Laurence%Lavayssiere%NULL%1, Marie-Béatrice%Nogier%NULL%1, Matthieu%Jamme%NULL%1, Claire%Pichereau%NULL%1, Jan%Hayon%NULL%1, Hervé%Outin%NULL%1, François%Dépret%NULL%1, Maxime%Coutrot%NULL%1, Maité%Chaussard%NULL%1, Lucie%Guillemet%NULL%1, Pierre%Goffin%NULL%1, Romain%Thouny%NULL%1, Julien%Guntz%NULL%1, Laurent%Jadot%NULL%1, Romain%Persichini%NULL%1, Vanessa%Jean-Michel%NULL%1, Hugues%Georges%NULL%1, Thomas%Caulier%NULL%1, Gaël%Pradel%NULL%1, Marie-Hélène%Hausermann%NULL%1, ThiMy Hue%Nguyen-Valat%NULL%1, Michel%Boudinaud%NULL%1, Emmanuel%Vivier%NULL%1, Sylvène%Rosseli%NULL%1, Gaël%Bourdin%NULL%1, Christian%Pommier%NULL%1, Marc%Vinclair%NULL%1, Simon%Poignant%NULL%1, Sandrine%Mons%NULL%1, Wulfran%Bougouin%NULL%1, Franklin%Bruna%NULL%1, Quentin%Maestraggi%NULL%1, Christian%Roth%NULL%1, Laurent%Bitker%NULL%1, François%Dhelft%NULL%1, Justine%Bonnet-Chateau%NULL%1, Mathilde%Filippelli%NULL%1, Tristan%Morichau-Beauchant%NULL%1, Stéphane%Thierry%NULL%1, Charlotte%Le Roy%NULL%1, Mélanie%Saint Jouan%NULL%1, Bruno%Goncalves%NULL%1, Aurélien%Mazeraud%NULL%1, Matthieu%Daniel%NULL%1, Tarek%Sharshar%NULL%1, Cyril%Cadoz%NULL%1, Rostane%Gaci%NULL%1, Sébastien%Gette%NULL%1, Guillaune%Louis%NULL%1, Sophe-Caroline%Sacleux%NULL%1, Marie-Amélie%Ordan%NULL%1, Aurélie%Cravoisy%NULL%1, Marie%Conrad%NULL%1, Guilhem%Courte%NULL%1, Sébastien%Gibot%NULL%0, Younès%Benzidi%NULL%1, Claudia%Casella%NULL%1, Laurent%Serpin%NULL%1, Jean-Lou%Setti%NULL%1, Marie-Catherine%Besse%NULL%1, Anna%Bourreau%NULL%1, Jérôme%Pillot%NULL%1, Caroline%Rivera%NULL%1, Camille%Vinclair%NULL%1, Marie-Aline%Robaux%NULL%1, Chloé%Achino%NULL%1, Marie-Charlotte%Delignette%NULL%1, Tessa%Mazard%NULL%1, Frédéric%Aubrun%NULL%1, Bruno%Bouchet%NULL%1, Aurélien%Frérou%NULL%1, Laura%Muller%NULL%1, Charlotte%Quentin%NULL%1, Samuel%Degoul%NULL%1, Xavier%Stihle%NULL%1, Claude%Sumian%NULL%1, Nicoletta%Bergero%NULL%1, Bernard%Lanaspre%NULL%1, Hervé%Quintard%NULL%1, Eve Marie%Maiziere%NULL%1, Pierre-Yves%Egreteau%NULL%1, Guillaume%Leloup%NULL%1, Florin%Berteau%NULL%1, Marjolaine%Cottrel%NULL%1, Marie%Bouteloup%NULL%1, Matthieu%Jeannot%NULL%1, Quentin%Blanc%NULL%1, Julien%Saison%NULL%1, Isabelle%Geneau%NULL%1, Romaric%Grenot%NULL%1, Abdel%Ouchike%NULL%1, Pascal%Hazera%NULL%1, Anne-Lyse%Masse%NULL%1, Suela%Demiri%NULL%1, Corinne%Vezinet%NULL%1, Elodie%Baron%NULL%1, Déborah%Benchetrit%NULL%1, Antoine%Monsel%NULL%1, Grégoire%Trebbia%NULL%1, Emmanuelle%Schaack%NULL%1, Raphaël%Lepecq%NULL%1, Mathieu%Bobet%NULL%1, Christophe%Vinsonneau%NULL%1, Thibault%Dekeyser%NULL%1, Quentin%Delforge%NULL%1, Imen%Rahmani%NULL%1, Bérengère%Vivet%NULL%1, Jonathan%Paillot%NULL%1, Lucie%Hierle%NULL%1, Claire%Chaignat%NULL%1, Sarah%Valette%NULL%1, Benoït%Her%NULL%1, Jennifier%Brunet%NULL%1, Mathieu%Page%NULL%1, Fabienne%Boiste%NULL%1, Anthony%Collin%NULL%1, Florent%Bavozet%NULL%2, Aude%Garin%NULL%1, Mohamed%Dlala%NULL%1, Kais%Mhamdi%NULL%1, Bassem%Beilouny%NULL%1, Alexandra%Lavalard%NULL%1, Severine%Perez%NULL%1, Benoit%Veber%NULL%1, Pierre-Gildas%Guitard%NULL%1, Philippe%Gouin%NULL%1, Anna%Lamacz%NULL%1, Fabienne%Plouvier%NULL%1, Bertrand P.%Delaborde%NULL%1, Aïssa%Kherchache%NULL%1, Amina%Chaalal%NULL%1, Jean-Damien%Ricard%NULL%1, Marc%Amouretti%NULL%1, Santiago%Freita-Ramos%NULL%1, Damien%Roux%NULL%1, Jean-Michel%Constantin%NULL%1, Mona%Assefi%NULL%1, Marine%Lecore%NULL%1, Agathe%Selves%NULL%1, Florian%Prevost%NULL%1, Christian%Lamer%NULL%1, Ruiying%Shi%NULL%1, Lyes%Knani%NULL%1, Sébastien%Pili-Floury%NULL%1, Lucie%Vettoretti%NULL%1, Michael%Levy%NULL%3, Lucile%Marsac%NULL%1, Stéphane%Dauger%NULL%1, Sophie%Guilmin-Crépon%NULL%1, Jean-Baptiste%Putegnat%NULL%1, Frédérique%Bayle%NULL%1, Maya%Perrou%NULL%1, Ghyslaine%Thao%NULL%1, Guillaume%Géri%NULL%2, Cyril%Charron%NULL%1, Xavier%Repessé%NULL%1, Antoine%Vieillard-Baron%NULL%2, Mathieu%Guilbart%NULL%2, Pierre-Alexandre%Roger%NULL%2, Sébastien%Hinard%NULL%1, Pierre-Yves%Macq%NULL%1, Kevin%Chaulier%NULL%1, Sylvie%Goutte%NULL%1, Patrick%Chillet%NULL%1, Anaïs%Pitta%NULL%1, Barbara%Darjent%NULL%1, Amandine%Bruneau%NULL%1, Sigismond%Lasocki%NULL%1, Maxime%Leger%NULL%1, Soizic%Gergaud%NULL%1, Pierre%Lemarie%NULL%1, Nicolas%Terzi%NULL%1, Carole%Schwebel%NULL%1, Anaïs%Dartevel%NULL%1, Louis-Marie%Galerneau%NULL%1, Jean-Luc%Diehl%NULL%1, Caroline%Hauw-Berlemont%NULL%0, Nicolas%Péron%NULL%1, Emmanuel%Guérot%NULL%1, Abolfazl Mohebbi%Amoli%NULL%1, Michel%Benhamou%NULL%1, Jean-Pierre%Deyme%NULL%1, Olivier%Andremont%NULL%1, Diane%Lena%NULL%1, Julien%Cady%NULL%1, Arnaud%Causeret%NULL%1, Arnaud%De La Chapelle%NULL%1, Christophe%Cracco%NULL%1, Stéphane%Rouleau%NULL%1, David%Schnell%NULL%1, Cécile%Lory%NULL%1, Thibault%Chapelle%NULL%1, Vincent%Bruckert%NULL%1, Julie%Garcia%NULL%1, Abdlazize%Sahraoui%NULL%1, Nathalie%Abbosh%NULL%1, Caroline%Bornstain%NULL%1, Pierre%Pernet%NULL%1, Florent%Poirson%NULL%1, Ahmed%Pasem%NULL%1, Philippe%Karoubi%NULL%1, Virginie%Poupinel%NULL%1, Caroline%Gauthier%NULL%1, François%Bouniol%NULL%1, Philippe%Feuchere%NULL%1, Florent%Bavozet%NULL%0, Anne%Heron%NULL%1, Serge%Carreira%NULL%1, Malo%Emery%NULL%1, Anne%Le Floch%NULL%1, Luana%Giovannangeli%NULL%1, Nicolas%Herzog%NULL%1, Christophe%Giacardi%NULL%1, Thibaut%Baudic%NULL%1, Chloé%Thill%NULL%1, Florence%Tubach%NULL%1, Olivier%Lesieur%NULL%1, Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental Digital Content is available in the text.
+</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%0, Max W.%Adelman%NULL%7, Maxwell A.%Hockstein%NULL%1, Chad J.%Robichaux%NULL%1, Johnathan A.%Edwards%NULL%1, Jane C.%Fazio%NULL%1, James M.%Blum%NULL%9, Craig S.%Jabaley%NULL%7, Mark%Caridi-Scheible%NULL%9, Greg S.%Martin%NULL%7, David J.%Murphy%NULL%9, Sara C.%Auld%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The effect of intubation timing on the prognosis of critically ill patients with coronavirus 2019 (COVID-19) is not yet well understood.
+ We investigated whether early intubation is associated with the survival of COVID-19 patients with acute respiratory distress syndrome (ARDS).
+ This multicenter, retrospective, observational study was done on 47 adult COVID-19 patients with ARDS who were admitted to the intensive care unit (ICU) in Daegu, Korea between February 17 and April 23, 2020. Clinical characteristics and in-hospital mortality were compared between the early intubation and initially non-intubated groups, and between the early and late intubation groups, respectively.
+ Of the 47 patients studied, 23 (48.9%) were intubated on the day of meeting ARDS criteria (early intubation), while 24 (51.1%) were not initially intubated.
+ Eight patients were never intubated during the in-hospital course.
+ Median follow-up duration was 46 days, and 21 patients (44.7%) died in the hospital.
+ No significant difference in in-hospital mortality rate was noted between the early group and initially non-intubated groups (56.5% vs.
+ 33.3%, p = 0.110).
+ Furthermore, the risk of in-hospital death in the early intubation group was not significantly different compared to the initially non-intubated group on multivariate adjusted analysis (p = 0.385).
+ Results were similar between early and late intubation in the subgroup analysis of 39 patients treated with mechanical ventilation.
+ In conclusion, in this study of critically ill COVID-19 patients with ARDS, early intubation was not associated with improved survival.
+ This result may help in the efficient allocation of limited medical resources, such as ventilators.
+</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%0, Siddique%Chaudhary%NULL%1, Kevin%Bryan Lo%NULL%2, Kevin%Bryan Lo%NULL%0, Robert%DeJoy%NULL%2, Fahad%Gul%NULL%4, Ricardo%Torres%NULL%1, Neal%Chaisson%NULL%2, Neal%Chaisson%NULL%0, Gabriel%Patarroyo-Aponte%NULL%3, Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%0, Bruno L.%Ferreyro%NULL%2, Bruno L.%Ferreyro%NULL%0, Federico%Angriman%NULL%1, María%Hernández-Sanz%NULL%2, Egoitz%Arruti%NULL%1, Antoni%Torres%NULL%0, Jesús%Villar%NULL%1, Laurent%Brochard%NULL%1, Carlos%Ferrando%NULL%2, Ricard%Mellado-Artigas%NULL%0, María%Hernández-Sanz%NULL%0, Carlos%Ferrando%NULL%0, Marina%Vendrell%NULL%1, Gerard%Sánchez-Etayo%NULL%1, Amalia%Alcón%NULL%1, Isabel%Belda%NULL%1, Mercé%Agustí%NULL%1, Albert%Carramiñana%NULL%1, Isabel%Gracia%NULL%1, Miriam%Panzeri%NULL%1, Irene%León%NULL%1, Jaume%Balust%NULL%1, Ricard%Navarro%NULL%2, María José%Arguís%NULL%1, María José%Carretero%NULL%1, Cristina%Ibáñez%NULL%1, Juan%Perdomo%NULL%1, Antonio%López%NULL%1, Manuel%López-Baamonde%NULL%1, Tomás%Cuñat%NULL%1, Marta%Ubré%NULL%1, Antonio%Ojeda%NULL%1, Andrea%Calvo%NULL%1, Eva%Rivas%NULL%1, Paola%Hurtado%NULL%1, Roger%Pujol%NULL%1, Nuria%Martín%NULL%1, Javier%Tercero%NULL%1, Pepe%Sanahuja%NULL%1, Marta%Magaldi%NULL%1, Miquel%Coca%NULL%1, Elena%del Rio%NULL%1, Julia%Martínez-Ocon%NULL%1, Paula%Masgoret%NULL%1, Monserrat%Tio%NULL%1, Angel%Caballero%NULL%1, Raquel%Risco%NULL%1, Raquel%Bergé%NULL%1, Lidia%Gómez%NULL%1, Nicolás%de Riva%NULL%1, Ana%Ruiz%NULL%1, Beatriz%Tena%NULL%1, Sebastián%Jaramillo%NULL%1, José María%Balibrea%NULL%1, Francisco Borja de Borja%de Lacy%NULL%1, Ana%Otero%NULL%1, Ainitze%Ibarzabal%NULL%1, Raquel%Bravo%NULL%1, Anna%Carreras%NULL%1, Daniel%Martín-Barreda%NULL%1, Alfonso Jesús%Alias%NULL%1, Mariano%Balaguer%NULL%1, Jorge%Aliaga%NULL%1, Alex%Almuedo%NULL%1, Joan Ramón%Alonso%NULL%1, Rut%Andrea%NULL%3, Gerard Sergi%Angelès%NULL%1,  Marilyn%Arias%NULL%1, Fátima%Aziz%NULL%1, Joan Ramon%Badía%NULL%1, Enric%Barbeta%NULL%1, Toni%Torres%NULL%1, Guillem%Batiste%NULL%1, Pau%Benet%NULL%1, Xavi%Borrat%NULL%1, María%Borrell%NULL%1, Ernest%Bragulat%NULL%1, Inmaculada%Carmona%NULL%1, Manuel%Castellà%NULL%1, Pedro%Castro%NULL%0, Joan%Ceravalls%NULL%1, Oscar%Comino%NULL%1, Claudia%Cucciniello%NULL%1, Clàudia%De Deray%NULL%1, Oriol%De Diego%NULL%1, Paula%De la Matta%NULL%1, Marta%Farrero%NULL%1, Javier%Fernández%NULL%1, Sara%Fernández%NULL%1, Anna%Fernández%NULL%1, Miquel%Ferrer%NULL%3, Ana%Fervienza%NULL%1, María%Tallo Forga%NULL%1, Daniel%Forné%NULL%1, Clàudia%Galán%NULL%1, Andrea%Gómez%NULL%1, Eduard%Guasch%NULL%1, María%Hernández-Tejero%NULL%1, Adriana%Jacas%NULL%3, Beltrán%Jiménez%NULL%1, Pere%Leyes%NULL%1, Teresa%López%NULL%1, José Antonio%Martínez%NULL%1, Graciela%Martínez-Pallí%NULL%1, Jordi%Mercadal%NULL%1, Guido%Muñoz%NULL%3, José%Muñoz%NULL%1, Ricard%Navarro%NULL%0, Josep María%Nicolás%NULL%1, José Tomás%Ortiz%NULL%1, Anna%Peiró%NULL%1, Manuel%Pérez%NULL%1, Esteban%Poch%NULL%1, Margarida%Pujol%NULL%1, Eduard%Quintana%NULL%3, Bartomeu%Ramis%NULL%1, Enric%Reverter%NULL%3, Irene%Rovira%NULL%3, Pablo%Ruiz%NULL%1, Elena%Sandoval%NULL%1, Stefan%Schneider%NULL%1, Oriol%Sibila%NULL%1, Carla%Solé%NULL%1, Alex%Soriano%NULL%2, Dolors%Soy%NULL%1, M.%Suárez%NULL%1, Adrián%Téllez%NULL%1, Néstor David%Toapanta%NULL%1, Antoni%Torres%NULL%0, Xavier%Urra%NULL%1, César%Aldecoa%NULL%1, Alicia%Bordell%NULL%1, Silvia%Martín%NULL%1, Judith%Andrés%NULL%1, Alberto Martínez%Ruiz%NULL%1, Gonzalo Tamayo%Medel%NULL%1, Iñaki Bilbao Bilbao%Villasante%NULL%1, Fernando Iturri%Clavero%NULL%1, Covadonga Peralta%Álvarez%NULL%1, Julia T.%Herrera Díez%NULL%1, Andrea García%Trancho%NULL%1, Iñaki Sainz %Mandiola%NULL%1, Carmen Ruano%Suarez%NULL%1, Angela Ruiz%Bocos%NULL%1, Eneritz Urrutia%Izagirre%NULL%1, Pablo Ortiz%de Urbina Fernández%NULL%1, Naiara Apodaka%López%NULL%1, Leire Prieto%Molano%NULL%1, Eunate Ganuza%Martínez%NULL%1, Iratxe Vallinas%Hidalgo%NULL%1, Karmele%de Orte Sancho%NULL%1, Celia González%Paniagua%NULL%1, Gemma Ortiz%Labrador%NULL%1, Mireia Pérez%Larrañaga%NULL%1, Marta López%Miguelez%NULL%1, Estíbaliz Bárcena%Andrés%NULL%1, Erik Urutxurtu%Laureano%NULL%1, Maria Jesús Maroño%Boedo%NULL%1, Blanca Escontrela%Rodríguez%NULL%1, Aitziber Ereñozaga%Camiruaga%NULL%1, Deiene Lasuen%Aguirre%NULL%1, Ainhoa Zabal%Maeztu%NULL%1, Ane Guereca%Gala%NULL%1, Iker Castelo%Korro%NULL%1, Andrés Álvarez%Campo%NULL%1, Alejandro Carcelen%Viana%NULL%1, Alejandro Alberdi%Enríquez%NULL%1, Xabier Ormazábal%Rementeria%NULL%1, Alberto Sánchez%Campos%NULL%1, Rosa Gutiérrez%Rico%NULL%1, Pablo Barbier%Damborenea%NULL%1, Marta Guerenabarrena%Momeñe%NULL%1, Borja Cuesta%Ruiz%NULL%1, Alejandro López%Rico%NULL%1, Ana Rojo%Polo%NULL%1, Covadonga García%Grijelmo%NULL%1, Mikel Celorrio%Reta%NULL%1, Eneko Martín%Arroyo%NULL%1, Leire Artaza%Aparicio%NULL%1, Iñaki Ituarte%Aspiazu%NULL%1, Ane Igeregi%Basabe%NULL%1, Itxaso Merino%Julian%NULL%1, Isabel Diaz%Rico%NULL%1, Maria Paz%Martínez%NULL%1, Ramón%Adalia Bartolomé%NULL%1, Luigi%Zattera%NULL%1, Irina Adalid%Hernandez%NULL%1, Leire Larrañaga%Altuna%NULL%1, Aina Serrallonga%Castells%NULL%1, Adriana Vílchez%Garcia%NULL%1, María%Núñez%NULL%1, Lorena%Román%NULL%1, Isabel Ramos%Delgado%NULL%1, Adela Benítez-Cano%Martínez%NULL%1, Mireia Chanzá%Albert%NULL%1, Juan Carlos Álvarez%García%NULL%1, Luis Aguilera%Cuchillo%NULL%1, Sandra Beltrán%de Heredia%NULL%1, Jesús Carazo%Cordobés%NULL%1, Carlos Alberto García%Bernedo%NULL%1, Fernando Escolano%Villén%NULL%1, Francisco Javier Redondo%Calvo%NULL%1, Rubén Villazala%González%NULL%1, Victor Baladron%González%NULL%1, Patricia%Faba%NULL%1, Omar%Montenegro%NULL%1, Natalia Bejarano%Ramírez%NULL%1, Sergio Marcos%Contreras%NULL%1, Alejandro Garcia%Rodríguez%NULL%1, Saleta Rey%Vázquez%NULL%1, Cristina Garcia%Pérez%NULL%1, Eva Higuera%Miguelez%NULL%1, Irene Pérez%Blanco%NULL%1, David García%Rivera%NULL%1, Ane Martín%de la Fuente%NULL%1, Marta%Pardo%NULL%1, Vanessa%Rodriguez%NULL%1, Unai%Bengoetxea%NULL%1, Fernando%Ramasco%NULL%1, Sheila Olga Santidrián%Bernal%NULL%1, Alvar Santa Cruz%Hernando%NULL%1, Antonio Planas%Roca%NULL%1, Carlos Figueroa%Yusta%NULL%1, Esther García%Villabona%NULL%1, Carmen Vallejo%Lantero%NULL%1, Eva Patiño%Rodriguez%NULL%1, Alvaro Esquivel%Toledo%NULL%1, David Arribas%Méndez%NULL%1, Mar Orts%Rodriguez%NULL%1, Rosa Méndez%Hernández%NULL%1, Jesús Nieves%Alonso%NULL%1, Inés Imaz%Artazcoz%NULL%1, Sonia Expósito%Carazo%NULL%1, Carlos Román%Guerrero%NULL%1, Elena Rojo%Rodríguez%NULL%1, Ricardo Moreno%González%NULL%1, Julia Hernando%Santos%NULL%1, Jara Torrente%Pérez%NULL%1, Esperanza Mata%Mena%NULL%1, Manuel José Muñoz%Martínez%NULL%1, Enrique Alday%Muñoz%NULL%1, Patricia Martin%Serrano%NULL%1, Laura Cotter%Muñoz%NULL%1, Amadea%Mjertan%NULL%1, Diego Gutierrez%Martínez%NULL%1, Carmen Rodríguez%García%NULL%1, Olaya Alonso%Viejo%NULL%1, Juan Alvarez%Pereira%NULL%1, Ana Carmona%Bonet%NULL%1, Diana Parrado%López%NULL%1, Eva%de Dios Tomas%NULL%1, Rafael Martín%Celemin%NULL%1, María Luisa Meilan%Paz%NULL%1, Luis Quecedo%Gutiérrez%NULL%1, Noemí Diaz%Velasco%NULL%1, Gabriel Martin%Hernández%NULL%1, Francisco Garcia%del Corral%NULL%1, Gloria Hernandez%Arias%NULL%1, David Rodriguez%Cuesta%NULL%1, Ana Gómez%Rice%NULL%1, Encarna Mateos%Sevillano%NULL%1, Natalia Olmos%Molpeceres%NULL%1, Beatriz%Domínguez%NULL%1, Ana Vázquez%Lima%NULL%1, Ángel%Candela%NULL%1, Ismael A. Acevedo%Bambaren%NULL%1, Maria Isabel Albala%Blanco%NULL%1, Paloma Alonso%Montoiro%NULL%1, Fernando Álvarez%Utrera%NULL%1, Juan Avellanosa%Esteruelas%NULL%1, Amal Azzam%López%NULL%1, Alberto José%Balvis%NULL%1, Balvis Tommaso%Bardi%NULL%1, María Beltrán%Martín%NULL%1, Jacobo Benatar%Haserfaty%NULL%1, Alberto Berruezo%Camacho%NULL%1, Laura Betolaza%Weimer%NULL%1, María%del Mar Carbonell Soto%NULL%1, Cristina Carrasco%Seral%NULL%1, Cristina Cerro %Zaballos%NULL%1, Elizabeth Claros%Llamas%NULL%1, Pilar Coleta%Orduna%NULL%1, Ingrid P. Cortes%Forero%NULL%1, Pascual Agustín Crespo%Aliseda%NULL%1, María Angélica%de Pablo Pajares%NULL%1, Yolanda Díez%Remesal%NULL%1, Trinidad Dorado%Díaz%NULL%1, Noemí Echevarría%Blasco%NULL%1, María Elena Elías%Martín%NULL%1, Javier Felices%Triviño%NULL%1, Natalia Fernández%López%NULL%1, Cristina Fernández%Martín%NULL%1, Natalia Ferreiro%Pozuelo%NULL%1, Luis Gajate%Martín%NULL%1, Clara Gallego%Santos%NULL%1, Diego Gil%Mayo%NULL%1, María Gómez%Rojo%NULL%1, Claudia González%Cibrián%NULL%1, Elena Herrera%López%NULL%1, Borja Hinojal%Olmedillo%NULL%1, Berta Iglesias%Gallego%NULL%1, Sassan%Khonsari%NULL%1, María Nuria Mane%Ruiz%NULL%1, María Manzanero%Arroyo%NULL%1, Ana María Mariscal%Ortega%NULL%1, Sara Martín%Burcio%NULL%1, María%del Carmen Martín González%NULL%1, Ascensión Martín%Grande%NULL%1, Jose Juan Martín%López%NULL%1, Cecilia Martín%Rabes%NULL%1, Marcos Martínez%Borja%NULL%1, Nilda Martínez%Castro%NULL%1, Adolfo Martínez%Pérez%NULL%1, Snejana%Matcan%NULL%1, Cristina Medrano%Viñas%NULL%1, Lisset Miguel%Herrera%NULL%1, Adrián Mira%Betancur%NULL%1, María Montiel%Carbajo%NULL%1, Javier Moya%Moradas%NULL%1, Lorena Muñoz%Pérez%NULL%1, Mónica Nuñez%Murias%NULL%1, Eva Ordiales%González%NULL%1, Óscar Ordoñez%Recio%NULL%1, Miguel Ángel Palomero%Rodriguez%NULL%1, Diego Parise%Roux%NULL%1, Lucia Pereira%Torres%NULL%1, David Pestaña%Lagunas%NULL%1, Juana María Pinto%Corraliza%NULL%1, Marian Prieto%Rodrigo%NULL%1, Inmaculada Rodriguez%Diaz-Regaño%NULL%1, David Rodriguez%Esteban%NULL%1, Víctor Rojas%Pernia%NULL%1, Álvaro Ruigómez%Saiz%NULL%1, Bárbara Saavedra%Villarino%NULL%1, Noemí Samaranch%Palero%NULL%1, Gloria Santos%Pérez%NULL%1, Jaume Serna%Pérez%NULL%1, Ana Belén Serrano%Romero%NULL%1, Jesús Tercero%López%NULL%1, Carlos Tiscar%García%NULL%1, Marta%de la Torre Concostrina%NULL%1, Eva María Ureta%Mesa%NULL%1, Eva Velasco%Olarte%NULL%1, Judith Villahoz%Martínez%NULL%1, Raúl Villalaba%Palacios%NULL%1, Gema Villanueva%García%NULL%1, Cristina Vogel%de Medeiros%NULL%1, Soraya Gholamian%Ovejero%NULL%1, Marta Vicente%Orgaz%NULL%1, Patricia Lloreda%Herradon%NULL%1, Cristina Crespo%Gómez%NULL%1, Tatiana%Sarmiento-Trujillo%NULL%1, Noemí García%Medina%NULL%1, María Martínez%García%NULL%1, Carles Espinós%Ramírez%NULL%1, Nabil Mouhaffel%Rivero%NULL%1, Jose Antonio Bernia%Gil%NULL%1, Sonsoles%Martín%NULL%1, María Victoria%Moral%NULL%1, Josefina%Galán%NULL%1, Pilar%Paniagua%NULL%1, Sergio%Pérez%NULL%1, Albert%Bainac%NULL%1, Ana%Arias%NULL%1, Elsa%Ramil%NULL%1, Jorge%Escudero%NULL%1, Pablo%Monedero%NULL%1, Carmen%Cara%NULL%1, Andrea%Lara%NULL%1, Elena Mendez%Martínez%NULL%1, Jorge%Mendoza%NULL%1, Íñigo Rubio%Baines%NULL%1, Carmen Sala%Trull%NULL%1, Pablo Montero%López%NULL%1, Alfredo%Gea%NULL%1, Alejandro%Montero%NULL%1, Rocío Armero%Ibañez%NULL%1, Juan Vicente Llau%Pitarch%NULL%1, Fernando Rauer%Alcóver%NULL%1, Cristina Álvarez%Herreros%NULL%1, Cyntia Sánchez%Martín%NULL%1, Lucía López Ocáriz%Olmos%NULL%1, Marta Navas%Moruno%NULL%1, Fernando García%Montoto%NULL%1, M. F. Mirón%Rodriguez%NULL%1, Laura Fuentes%Coco%NULL%1, Cristina Hernández%Gamito%NULL%1, Antonio Barba%Orejudo%NULL%1, Luis Gerardo Smith%Vielma%NULL%1, Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1, Marta Donoso%Domínguez%NULL%1, Silvia Esquivel%Ramírez%NULL%1, José Antonio%Carbonell%NULL%1, Berta Monleón%López%NULL%1, Sara%Martínez-Castro%NULL%1, Gerardo%Aguilar%NULL%1, María Gestal Pablo%Casas%NULL%1, Angel Outeiro%Rosato%NULL%1, Andrea Naveiro%Pan%NULL%1, María Alonso%Portela%NULL%1, Adrián García%Romar%NULL%1, Eva Mosquera%Rodríguez%NULL%1, Diego Ruanova%Seijo%NULL%1, Pablo Rama%Maceiras%NULL%1, Francisco%Castro-Ceoane%NULL%1, Esther Moreno%López%NULL%1, Sergio%Gil%NULL%1, Julia Guillén%Antón%NULL%1, Patricia García-Consuegra%Tirado%NULL%1, Aurora Callau%Calvo%NULL%1, Laura Forés%Lisbona%NULL%1, María Carbonell%Romero%NULL%1, Belén Albericio%Gil%NULL%1, Laura Pradal%Jarne%NULL%1, María Soria%Lozano%NULL%1, Diego Loscos%López%NULL%1, Andrea Patiño Abarca, Jordi Serrano, Javier Pérez-Asenjo Ángel%Díez-Domínguez%NULL%1, Ion%Zubizarreta%NULL%1, Jon%Ramos%NULL%1, Iosu Fernández, Emilio Maseda Alejandro Suárez%de la Rica%NULL%1, Javier Veganzones, Itziar Insausti Javier%Sagra%NULL%1, Sofía Díaz%Carrasco%NULL%1, Ana Montero%Feijoo%NULL%1, Julio Yagüe, Ignacio Garutti Javier%Hortal%NULL%1, Patricia%Piñeiro%NULL%1, Matilde%Piñeiro%NULL%1, Matilde%Zaballos%NULL%1, Jamil%cedeño%NULL%1, Pablo%García-Olivares%NULL%1, Alberto%Garriido%NULL%1, Jose Eugenioi%Guerrero%NULL%1, Eva Bassas Parga, Carmen Deiros Garcia Elisenda Pujol%Rosa%NULL%1, Ana Tejedor%Navarro%NULL%1, Roser Font%Gabernet%NULL%1, Maria José%Bernat%NULL%1, Meritxell Serra%Valls%NULL%1, Cristina Cobaleda%Garcia-Bernalt%NULL%1, Jesus Fernanz%Anton%NULL%1, Adriana Aponte%Sierra%NULL%1, Lucia Gil%Gomez%NULL%1, Olaia Guenaga%Vaqueiro%NULL%1, Susana Hernandez%Marin%NULL%1, Laura Pardo Pinzon, Sira Garcia Aranda Carlos Briones%Orejuela%NULL%1, Edgar Cortes%Sánchez%NULL%1, Alejandro Romero%Fernández%NULL%1, Esther Fernández%SanJosé%NULL%1, Patricia Iglesias%Garsabal%NULL%1, Guillermo Isidro%Lopez%NULL%1, Ana%Vicol%NULL%1, Sara Espejo%Malagon%NULL%1, María Sanabra Loewe, Laura Grau Torradeflo Lourdes Blanco%Alcaide%NULL%1, Gloria Buenaventura Sanclemente, Pere Serra Pujol Gustavo Cuadros%Mendoza%NULL%1, Miroslawa Konarska, Fedra Bachs Almenara Agnieszka%Golska%NULL%1, Aleix%Carmona Blesa%NULL%1, Arantxa Mas%Serra%NULL%1, Javier Ripolles%Melchor%NULL%1, Ana Nieto%Moreno%NULL%1, Káteri Chao%Novo%NULL%1, Sandra Gadín%López%NULL%1, Elena Nieto%Moreno%NULL%1, Bérénice Gutiérrez%Tonal%NULL%1, Elena Lucena%de Pablo%NULL%1, Barbara Algar%Yañez%NULL%1, Beatriz Vázquez%Rivero%NULL%1, Beatriz Nozal%Mateo%NULL%1, Marina%de Retes%NULL%1, Norma Aracil%Escoda%NULL%1, Cristina Gallardo%Mayo%NULL%1, Rosa Sanz%González%NULL%1, Alicia Ruiz Escobar, Maria Laura Pelegrina López Marina Valenzuela%Peña%NULL%1, David Stolle%Dueñas%NULL%1, Ane Abad%Motos%NULL%1, Alfredo%Abad-Gurumeta%NULL%1, Ana Tirado%Errazquin%NULL%1, Elena Sáez%Ruiz%NULL%1, Nerea Gómez%Pérez%NULL%1, Francisco%de Borja Bau González, Cesar Morcillo Serra Jessica Souto Higueras, Rosario Vicente Raquel Ferrandis%NULL%1, Silvia Polo%Martín%NULL%1, Azucena Pajares%Moncho%NULL%1, Ignacio Moreno%Puigdollers%NULL%1, Juan Pérez Artacho%Cortés%NULL%1, Ana Moret%Calvo%NULL%1, Ana Pi%Peña%NULL%1, María Catalán Fernández, Marina Varela Pilar Díaz%Parada%NULL%1, Raquel Rey%Carlín%NULL%1, Sarra Barreiro%Aragunde%NULL%1, María Isabel Forés%Chiva%NULL%1, A. Javier%Agulló%NULL%1, Antonio Pérez%Ferrer%NULL%1, María%Galiana%NULL%1, Antoni Margarit Válerie Mourre%del Rio%NULL%1, Eva Heras%Muxella%NULL%1, Anna%Vidal%NULL%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%0, Navjot Ariyana%Kaur%NULL%1, Daniel%Sacher%NULL%1, Oisin%O’Corragain%NULL%1, Daniel%Salerno%NULL%1, Parag%Desai%NULL%1, Sameep%Sehgal%NULL%1, Matthew%Gordon%NULL%2, Rohit%Gupta%NULL%2, Nathaniel%Marchetti%NULL%1, Huaqing%Zhao%NULL%2, Nicole%Patlakh%NULL%2, Gerard J.%Criner%NULL%1, Temple%University%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>American College of Chest Physicians. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0, Dominik%Jarczak%NULL%2, Liina%Thasler%NULL%2, Martin%Bachmann%NULL%2, Frank%Schulte%NULL%2, Berthold%Bein%NULL%2, Christian Friedrich%Weber%NULL%2, Ulrich%Schäfer%NULL%2, Carsten%Veit%NULL%2, Hans-Peter%Hauber%NULL%2, Sebastian%Kopp%NULL%2, Karsten%Sydow%NULL%2, Andreas%de Weerth%NULL%0, Marc%Bota%NULL%2, Rüdiger%Schreiber%NULL%2, Oliver%Detsch%NULL%2, Jan-Peer%Rogmann%NULL%2, Daniel%Frings%NULL%0, Barbara%Sensen%NULL%2, Christoph%Burdelski%NULL%0, Olaf%Boenisch%NULL%2, Axel%Nierhaus%NULL%0, Geraldine%de Heer%NULL%0, Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>Australian College of Critical Care Nurses Ltd. Published by Elsevier Ltd.</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1940,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1801,10 +1952,10 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3">
@@ -1821,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1833,10 +1984,10 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4">
@@ -1850,10 +2001,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="E4" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1865,10 +2016,10 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5">
@@ -1885,7 +2036,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1897,10 +2048,10 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6">
@@ -1914,10 +2065,10 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1929,10 +2080,10 @@
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>284</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7">
@@ -1946,10 +2097,10 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>423</v>
       </c>
       <c r="E7" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1961,10 +2112,10 @@
         <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8">
@@ -1975,25 +2126,25 @@
         <v>44027.0</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>384</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>287</v>
+        <v>69</v>
       </c>
       <c r="J8" t="s">
         <v>69</v>
@@ -2010,10 +2161,10 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>426</v>
       </c>
       <c r="E9" t="s">
-        <v>385</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2025,10 +2176,10 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10">
@@ -2042,10 +2193,10 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>423</v>
       </c>
       <c r="E10" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -2057,10 +2208,10 @@
         <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11">
@@ -2074,10 +2225,10 @@
         <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -2089,10 +2240,10 @@
         <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>284</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12">
@@ -2109,7 +2260,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -2121,10 +2272,10 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13">
@@ -2141,7 +2292,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -2153,10 +2304,10 @@
         <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
